--- a/a2_RyR_Analyser/a2_output/Target_with_limits.xlsx
+++ b/a2_RyR_Analyser/a2_output/Target_with_limits.xlsx
@@ -602,100 +602,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3316</v>
+        <v>0.3241</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3316</v>
+        <v>0.3242</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3311</v>
+        <v>0.3236</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3314</v>
+        <v>0.3234</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3308</v>
+        <v>0.3246</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3298</v>
+        <v>0.3246</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3316</v>
+        <v>0.3242</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3316</v>
+        <v>0.3243</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3302</v>
+        <v>0.324</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3298</v>
+        <v>0.3245</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3298</v>
+        <v>0.3236</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3316</v>
+        <v>0.3246</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3316</v>
+        <v>0.3236</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3316</v>
+        <v>0.324</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3304</v>
+        <v>0.3242</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3312</v>
+        <v>0.3238</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3316</v>
+        <v>0.3245</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3316</v>
+        <v>0.3238</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3307</v>
+        <v>0.3244</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3305</v>
+        <v>0.323</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3316</v>
+        <v>0.3241</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3316</v>
+        <v>0.3238</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3316</v>
+        <v>0.3241</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3316</v>
+        <v>0.3243</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3316</v>
+        <v>0.324</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3315</v>
+        <v>0.3238</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.3316</v>
+        <v>0.324</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.3316</v>
+        <v>0.3235</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3316</v>
+        <v>0.3236</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.3316</v>
+        <v>0.3238</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.3162</v>
+        <v>0.323</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.3462</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="3">
@@ -705,100 +705,100 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3546</v>
+        <v>0.3532</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3546</v>
+        <v>0.3532</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3543</v>
+        <v>0.3527</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3544</v>
+        <v>0.3526</v>
       </c>
       <c r="F3" t="n">
-        <v>0.354</v>
+        <v>0.3536</v>
       </c>
       <c r="G3" t="n">
+        <v>0.3536</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.3534</v>
       </c>
-      <c r="H3" t="n">
-        <v>0.3546</v>
-      </c>
       <c r="I3" t="n">
-        <v>0.3546</v>
+        <v>0.3535</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3536</v>
+        <v>0.3531</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3534</v>
+        <v>0.3533</v>
       </c>
       <c r="L3" t="n">
+        <v>0.3527</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.3535</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.3526</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.3531</v>
+      </c>
+      <c r="P3" t="n">
         <v>0.3533</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.3546</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.3546</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.3546</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.3538</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0.3543</v>
+        <v>0.3529</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3546</v>
+        <v>0.3533</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3546</v>
+        <v>0.3529</v>
       </c>
       <c r="T3" t="n">
-        <v>0.354</v>
+        <v>0.3533</v>
       </c>
       <c r="U3" t="n">
-        <v>0.354</v>
+        <v>0.3523</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3546</v>
+        <v>0.3531</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3546</v>
+        <v>0.3527</v>
       </c>
       <c r="X3" t="n">
-        <v>0.3546</v>
+        <v>0.3533</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3546</v>
+        <v>0.3532</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.3546</v>
+        <v>0.3531</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.3545</v>
+        <v>0.353</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.3546</v>
+        <v>0.3529</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.3546</v>
+        <v>0.3526</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.3546</v>
+        <v>0.3526</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.3546</v>
+        <v>0.3529</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.3393</v>
+        <v>0.3468</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.3693</v>
+        <v>0.3768</v>
       </c>
     </row>
     <row r="4">
@@ -808,100 +808,100 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3355</v>
+        <v>0.3364</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3355</v>
+        <v>0.3362</v>
       </c>
       <c r="D4" t="n">
+        <v>0.3359</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3358</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3364</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.3364</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.3362</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3363</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3363</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3362</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.3361</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.3364</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.3357</v>
       </c>
-      <c r="E4" t="n">
+      <c r="O4" t="n">
+        <v>0.3362</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.3363</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.3363</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.3359</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.3363</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.3356</v>
       </c>
-      <c r="F4" t="n">
+      <c r="V4" t="n">
+        <v>0.3362</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.3358</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.3364</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.3361</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.3362</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.3363</v>
+      </c>
+      <c r="AB4" t="n">
         <v>0.3357</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.335</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.3357</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3356</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.3356</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.3352</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.3352</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.3348</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.3352</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.3347</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.3357</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.3355</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.3355</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.3355</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.3356</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.3355</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.3347</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.3355</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.3357</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.3353</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.3353</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.3356</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.3346</v>
-      </c>
       <c r="AC4" t="n">
-        <v>0.3349</v>
+        <v>0.3358</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.3357</v>
+        <v>0.3358</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.3351</v>
+        <v>0.3362</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.3204</v>
+        <v>0.323</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.3504</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="5">
@@ -911,100 +911,100 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3565</v>
+        <v>0.361</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3565</v>
+        <v>0.361</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3564</v>
+        <v>0.3606</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3565</v>
+        <v>0.3606</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3565</v>
+        <v>0.3611</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3562</v>
+        <v>0.3611</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3564</v>
+        <v>0.3609</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3565</v>
+        <v>0.3611</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3564</v>
+        <v>0.361</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3563</v>
+        <v>0.3609</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3562</v>
+        <v>0.3607</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3564</v>
+        <v>0.3611</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3563</v>
+        <v>0.3604</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3562</v>
+        <v>0.361</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3564</v>
+        <v>0.361</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3565</v>
+        <v>0.3607</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3565</v>
+        <v>0.361</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3565</v>
+        <v>0.3607</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3565</v>
+        <v>0.361</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3565</v>
+        <v>0.3604</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3563</v>
+        <v>0.3609</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3565</v>
+        <v>0.3605</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3564</v>
+        <v>0.3611</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3563</v>
+        <v>0.3608</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.3564</v>
+        <v>0.3609</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3565</v>
+        <v>0.361</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3562</v>
+        <v>0.3605</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3562</v>
+        <v>0.3605</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.3565</v>
+        <v>0.3605</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.3565</v>
+        <v>0.3609</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.3414</v>
+        <v>0.3468</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.3714</v>
+        <v>0.3768</v>
       </c>
     </row>
     <row r="6">
@@ -1014,100 +1014,100 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3423</v>
+        <v>0.3453</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3424</v>
+        <v>0.3458</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3414</v>
+        <v>0.3453</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3414</v>
+        <v>0.3454</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3414</v>
+        <v>0.3456</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3416</v>
+        <v>0.3457</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3412</v>
+        <v>0.3457</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3421</v>
+        <v>0.3457</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3414</v>
+        <v>0.3456</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3412</v>
+        <v>0.3454</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3417</v>
+        <v>0.3453</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3422</v>
+        <v>0.3455</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3423</v>
+        <v>0.3456</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3423</v>
+        <v>0.3455</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3414</v>
+        <v>0.3454</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3415</v>
+        <v>0.3452</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3417</v>
+        <v>0.3454</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3423</v>
+        <v>0.3451</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3414</v>
+        <v>0.3454</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3412</v>
+        <v>0.3451</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3422</v>
+        <v>0.3451</v>
       </c>
       <c r="W6" t="n">
-        <v>0.341</v>
+        <v>0.3451</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3423</v>
+        <v>0.3454</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.342</v>
+        <v>0.3453</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3423</v>
+        <v>0.3455</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3422</v>
+        <v>0.3453</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.3423</v>
+        <v>0.3449</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3423</v>
+        <v>0.3455</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.3411</v>
+        <v>0.3456</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.3411</v>
+        <v>0.3451</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.3268</v>
+        <v>0.323</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.3568</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="7">
@@ -1117,100 +1117,100 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3624</v>
+        <v>0.3704</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3625</v>
+        <v>0.3707</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3623</v>
+        <v>0.3703</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3623</v>
+        <v>0.3704</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3622</v>
+        <v>0.3706</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3623</v>
+        <v>0.3706</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3619</v>
+        <v>0.3706</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3623</v>
+        <v>0.3707</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3623</v>
+        <v>0.3705</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3619</v>
+        <v>0.3704</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3623</v>
+        <v>0.3702</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3623</v>
+        <v>0.3705</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3624</v>
+        <v>0.3704</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3624</v>
+        <v>0.3705</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3622</v>
+        <v>0.3704</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3622</v>
+        <v>0.3701</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3624</v>
+        <v>0.3704</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3623</v>
+        <v>0.3701</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3623</v>
+        <v>0.3704</v>
       </c>
       <c r="U7" t="n">
-        <v>0.362</v>
+        <v>0.3701</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3623</v>
+        <v>0.3702</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3618</v>
+        <v>0.3701</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3625</v>
+        <v>0.3705</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3622</v>
+        <v>0.3703</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3623</v>
+        <v>0.3704</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3623</v>
+        <v>0.3704</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3624</v>
+        <v>0.3701</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3624</v>
+        <v>0.3703</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.3618</v>
+        <v>0.3704</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.3618</v>
+        <v>0.3702</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.3472</v>
+        <v>0.3468</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.3772</v>
+        <v>0.3768</v>
       </c>
     </row>
     <row r="8">
@@ -1220,100 +1220,100 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3325</v>
+        <v>0.322</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3325</v>
+        <v>0.3219</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3321</v>
+        <v>0.3218</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3325</v>
+        <v>0.3216</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3325</v>
+        <v>0.3216</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3322</v>
+        <v>0.3216</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3323</v>
+        <v>0.3217</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3325</v>
+        <v>0.3214</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3324</v>
+        <v>0.3214</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3318</v>
+        <v>0.3213</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3317</v>
+        <v>0.3214</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3323</v>
+        <v>0.3213</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3325</v>
+        <v>0.3212</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3325</v>
+        <v>0.3211</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3325</v>
+        <v>0.3213</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3325</v>
+        <v>0.3211</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3325</v>
+        <v>0.3212</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3325</v>
+        <v>0.3211</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3325</v>
+        <v>0.3211</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3325</v>
+        <v>0.3208</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3324</v>
+        <v>0.3209</v>
       </c>
       <c r="W8" t="n">
-        <v>0.332</v>
+        <v>0.321</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3325</v>
+        <v>0.3216</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3325</v>
+        <v>0.3214</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3325</v>
+        <v>0.3214</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3325</v>
+        <v>0.3212</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.3325</v>
+        <v>0.3211</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3325</v>
+        <v>0.321</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.3323</v>
+        <v>0.3209</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.332</v>
+        <v>0.3209</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.3174</v>
+        <v>0.323</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.3474</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="9">
@@ -1323,100 +1323,100 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3557</v>
+        <v>0.3501</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3557</v>
+        <v>0.35</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3555</v>
+        <v>0.3498</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3557</v>
+        <v>0.3498</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3557</v>
+        <v>0.3497</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3556</v>
+        <v>0.3497</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3556</v>
+        <v>0.3497</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3557</v>
+        <v>0.3496</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3557</v>
+        <v>0.3495</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3554</v>
+        <v>0.3494</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3554</v>
+        <v>0.3494</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3556</v>
+        <v>0.3494</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3557</v>
+        <v>0.3493</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3557</v>
+        <v>0.3492</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3557</v>
+        <v>0.3493</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3557</v>
+        <v>0.3492</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3557</v>
+        <v>0.3492</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3557</v>
+        <v>0.3492</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3557</v>
+        <v>0.3492</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3557</v>
+        <v>0.349</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3557</v>
+        <v>0.3491</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3555</v>
+        <v>0.3491</v>
       </c>
       <c r="X9" t="n">
-        <v>0.3557</v>
+        <v>0.3497</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3557</v>
+        <v>0.3494</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.3557</v>
+        <v>0.3494</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.3557</v>
+        <v>0.3493</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.3557</v>
+        <v>0.3492</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.3557</v>
+        <v>0.3491</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.3556</v>
+        <v>0.3491</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.3554</v>
+        <v>0.349</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.3406</v>
+        <v>0.3468</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.3706</v>
+        <v>0.3768</v>
       </c>
     </row>
     <row r="10">
@@ -1426,100 +1426,100 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3267</v>
+        <v>0.3346</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3267</v>
+        <v>0.3347</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3267</v>
+        <v>0.3347</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3267</v>
+        <v>0.3346</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3267</v>
+        <v>0.3348</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3267</v>
+        <v>0.3345</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3267</v>
+        <v>0.3347</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3267</v>
+        <v>0.3342</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3267</v>
+        <v>0.3342</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3267</v>
+        <v>0.3343</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3267</v>
+        <v>0.3342</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3267</v>
+        <v>0.3342</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3267</v>
+        <v>0.3343</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3267</v>
+        <v>0.3346</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3267</v>
+        <v>0.3346</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3267</v>
+        <v>0.3346</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3267</v>
+        <v>0.3344</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3267</v>
+        <v>0.3345</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3267</v>
+        <v>0.3342</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3267</v>
+        <v>0.3343</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3267</v>
+        <v>0.3344</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3267</v>
+        <v>0.3341</v>
       </c>
       <c r="X10" t="n">
-        <v>0.3267</v>
+        <v>0.3343</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.3267</v>
+        <v>0.3347</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.3267</v>
+        <v>0.3344</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.3267</v>
+        <v>0.334</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.3267</v>
+        <v>0.3342</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.3267</v>
+        <v>0.3343</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.3267</v>
+        <v>0.3341</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.3267</v>
+        <v>0.3343</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.3117</v>
+        <v>0.323</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.3417</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="11">
@@ -1529,100 +1529,100 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3522</v>
+        <v>0.3605</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3522</v>
+        <v>0.3605</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3522</v>
+        <v>0.3605</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3522</v>
+        <v>0.3604</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3522</v>
+        <v>0.3606</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3522</v>
+        <v>0.3603</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3522</v>
+        <v>0.3605</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3522</v>
+        <v>0.3601</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3522</v>
+        <v>0.3601</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3522</v>
+        <v>0.3601</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3522</v>
+        <v>0.36</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3522</v>
+        <v>0.3601</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3522</v>
+        <v>0.3601</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3522</v>
+        <v>0.3603</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3522</v>
+        <v>0.3603</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3522</v>
+        <v>0.3603</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3522</v>
+        <v>0.3601</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3522</v>
+        <v>0.3602</v>
       </c>
       <c r="T11" t="n">
-        <v>0.3522</v>
+        <v>0.36</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3522</v>
+        <v>0.3601</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3522</v>
+        <v>0.3601</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3522</v>
+        <v>0.3599</v>
       </c>
       <c r="X11" t="n">
-        <v>0.3522</v>
+        <v>0.3602</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.3522</v>
+        <v>0.3604</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.3522</v>
+        <v>0.3602</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.3522</v>
+        <v>0.3599</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.3522</v>
+        <v>0.36</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.3522</v>
+        <v>0.3601</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.3522</v>
+        <v>0.3599</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.3522</v>
+        <v>0.36</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.3372</v>
+        <v>0.3468</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.3672</v>
+        <v>0.3768</v>
       </c>
     </row>
     <row r="12">
@@ -1632,100 +1632,100 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.334</v>
+        <v>0.3417</v>
       </c>
       <c r="C12" t="n">
-        <v>0.334</v>
+        <v>0.3417</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3341</v>
+        <v>0.3411</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3342</v>
+        <v>0.3415</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3343</v>
+        <v>0.3415</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3342</v>
+        <v>0.3415</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3339</v>
+        <v>0.3413</v>
       </c>
       <c r="I12" t="n">
-        <v>0.334</v>
+        <v>0.3414</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3343</v>
+        <v>0.3415</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3343</v>
+        <v>0.3409</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3343</v>
+        <v>0.3412</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3338</v>
+        <v>0.3407</v>
       </c>
       <c r="N12" t="n">
-        <v>0.334</v>
+        <v>0.341</v>
       </c>
       <c r="O12" t="n">
-        <v>0.334</v>
+        <v>0.3408</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3343</v>
+        <v>0.3409</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3342</v>
+        <v>0.3408</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3341</v>
+        <v>0.3407</v>
       </c>
       <c r="S12" t="n">
-        <v>0.334</v>
+        <v>0.341</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3343</v>
+        <v>0.3407</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3342</v>
+        <v>0.3409</v>
       </c>
       <c r="V12" t="n">
-        <v>0.334</v>
+        <v>0.3409</v>
       </c>
       <c r="W12" t="n">
-        <v>0.3335</v>
+        <v>0.341</v>
       </c>
       <c r="X12" t="n">
-        <v>0.334</v>
+        <v>0.3411</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.334</v>
+        <v>0.3407</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.334</v>
+        <v>0.3409</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.334</v>
+        <v>0.3411</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.334</v>
+        <v>0.341</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.334</v>
+        <v>0.3409</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.3339</v>
+        <v>0.3411</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.3336</v>
+        <v>0.3405</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.319</v>
+        <v>0.323</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.349</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="13">
@@ -1735,100 +1735,100 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3557</v>
+        <v>0.3683</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3557</v>
+        <v>0.3683</v>
       </c>
       <c r="D13" t="n">
-        <v>0.356</v>
+        <v>0.3678</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3559</v>
+        <v>0.3682</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3561</v>
+        <v>0.368</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3561</v>
+        <v>0.368</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3556</v>
+        <v>0.3679</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3557</v>
+        <v>0.3681</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3561</v>
+        <v>0.3681</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3561</v>
+        <v>0.3677</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3561</v>
+        <v>0.368</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3556</v>
+        <v>0.3676</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3557</v>
+        <v>0.3678</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3557</v>
+        <v>0.3676</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3561</v>
+        <v>0.3676</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3559</v>
+        <v>0.3676</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3558</v>
+        <v>0.3677</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3557</v>
+        <v>0.3678</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3561</v>
+        <v>0.3677</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3559</v>
+        <v>0.3676</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3557</v>
+        <v>0.3675</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3554</v>
+        <v>0.3677</v>
       </c>
       <c r="X13" t="n">
-        <v>0.3557</v>
+        <v>0.3679</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.3557</v>
+        <v>0.3675</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.3557</v>
+        <v>0.3677</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.3557</v>
+        <v>0.3679</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.3557</v>
+        <v>0.3676</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.3557</v>
+        <v>0.3676</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.3556</v>
+        <v>0.3676</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.3555</v>
+        <v>0.3674</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.3408</v>
+        <v>0.3468</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.3708</v>
+        <v>0.3768</v>
       </c>
     </row>
     <row r="14">
@@ -1838,100 +1838,100 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3315</v>
+        <v>0.3287</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3315</v>
+        <v>0.329</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3313</v>
+        <v>0.3288</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3317</v>
+        <v>0.3291</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3316</v>
+        <v>0.3291</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3303</v>
+        <v>0.329</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3318</v>
+        <v>0.3291</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3316</v>
+        <v>0.3291</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3311</v>
+        <v>0.3289</v>
       </c>
       <c r="K14" t="n">
-        <v>0.331</v>
+        <v>0.329</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3305</v>
+        <v>0.3289</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3318</v>
+        <v>0.3289</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3318</v>
+        <v>0.3291</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3318</v>
+        <v>0.329</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3312</v>
+        <v>0.329</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3315</v>
+        <v>0.3289</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3316</v>
+        <v>0.3291</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3314</v>
+        <v>0.329</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3313</v>
+        <v>0.3288</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3314</v>
+        <v>0.3282</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3318</v>
+        <v>0.329</v>
       </c>
       <c r="W14" t="n">
-        <v>0.3318</v>
+        <v>0.3291</v>
       </c>
       <c r="X14" t="n">
-        <v>0.3318</v>
+        <v>0.327</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.3318</v>
+        <v>0.329</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.3318</v>
+        <v>0.329</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.3317</v>
+        <v>0.329</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.3318</v>
+        <v>0.3289</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.3318</v>
+        <v>0.329</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.3318</v>
+        <v>0.3291</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.3318</v>
+        <v>0.3294</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.3165</v>
+        <v>0.323</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.3465</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="15">
@@ -1941,100 +1941,100 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3547</v>
+        <v>0.3568</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3547</v>
+        <v>0.3571</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3544</v>
+        <v>0.3569</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3546</v>
+        <v>0.3571</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3546</v>
+        <v>0.3572</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3539</v>
+        <v>0.357</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3547</v>
+        <v>0.3571</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3547</v>
+        <v>0.3572</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3543</v>
+        <v>0.3571</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3544</v>
+        <v>0.3571</v>
       </c>
       <c r="L15" t="n">
-        <v>0.354</v>
+        <v>0.3569</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3547</v>
+        <v>0.3571</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3547</v>
+        <v>0.3571</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3547</v>
+        <v>0.357</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3544</v>
+        <v>0.3571</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.3547</v>
+        <v>0.357</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3547</v>
+        <v>0.3571</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3547</v>
+        <v>0.357</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3545</v>
+        <v>0.3568</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3547</v>
+        <v>0.3563</v>
       </c>
       <c r="V15" t="n">
-        <v>0.3547</v>
+        <v>0.357</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3547</v>
+        <v>0.3571</v>
       </c>
       <c r="X15" t="n">
-        <v>0.3547</v>
+        <v>0.3551</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.3547</v>
+        <v>0.357</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.3547</v>
+        <v>0.357</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.3547</v>
+        <v>0.357</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.3547</v>
+        <v>0.357</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.3547</v>
+        <v>0.357</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.3547</v>
+        <v>0.3571</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.3547</v>
+        <v>0.3572</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.3396</v>
+        <v>0.3468</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.3696</v>
+        <v>0.3768</v>
       </c>
     </row>
     <row r="16">
@@ -2044,100 +2044,100 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.325</v>
+        <v>0.3314</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3249</v>
+        <v>0.3315</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3243</v>
+        <v>0.3315</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3243</v>
+        <v>0.3314</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3243</v>
+        <v>0.3314</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3243</v>
+        <v>0.3315</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3243</v>
+        <v>0.3316</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3243</v>
+        <v>0.3315</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3243</v>
+        <v>0.3314</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3255</v>
+        <v>0.3314</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3243</v>
+        <v>0.3314</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3256</v>
+        <v>0.3314</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3253</v>
+        <v>0.3315</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3259</v>
+        <v>0.3315</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3243</v>
+        <v>0.3315</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3247</v>
+        <v>0.3315</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3243</v>
+        <v>0.3315</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3248</v>
+        <v>0.3314</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3243</v>
+        <v>0.3314</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3246</v>
+        <v>0.3311</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3254</v>
+        <v>0.3314</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3243</v>
+        <v>0.3315</v>
       </c>
       <c r="X16" t="n">
-        <v>0.3244</v>
+        <v>0.3304</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3247</v>
+        <v>0.3315</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.3247</v>
+        <v>0.3315</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.3244</v>
+        <v>0.3315</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.3259</v>
+        <v>0.3316</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3257</v>
+        <v>0.3316</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.3244</v>
+        <v>0.3315</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.3244</v>
+        <v>0.3315</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.3097</v>
+        <v>0.323</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.3397</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="17">
@@ -2147,100 +2147,100 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3509</v>
+        <v>0.3596</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3509</v>
+        <v>0.3597</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3506</v>
+        <v>0.3597</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3506</v>
+        <v>0.3596</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3506</v>
+        <v>0.3596</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3506</v>
+        <v>0.3597</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3506</v>
+        <v>0.3598</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3505</v>
+        <v>0.3597</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3506</v>
+        <v>0.3597</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3512</v>
+        <v>0.3597</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3506</v>
+        <v>0.3596</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3512</v>
+        <v>0.3597</v>
       </c>
       <c r="N17" t="n">
-        <v>0.351</v>
+        <v>0.3597</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3514</v>
+        <v>0.3597</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3506</v>
+        <v>0.3597</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3508</v>
+        <v>0.3597</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3506</v>
+        <v>0.3597</v>
       </c>
       <c r="S17" t="n">
-        <v>0.3508</v>
+        <v>0.3597</v>
       </c>
       <c r="T17" t="n">
-        <v>0.3506</v>
+        <v>0.3595</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3507</v>
+        <v>0.3593</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3511</v>
+        <v>0.3596</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3506</v>
+        <v>0.3597</v>
       </c>
       <c r="X17" t="n">
-        <v>0.3506</v>
+        <v>0.3586</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.3507</v>
+        <v>0.3597</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.3507</v>
+        <v>0.3597</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.3506</v>
+        <v>0.3597</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.3514</v>
+        <v>0.3597</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3513</v>
+        <v>0.3597</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.3506</v>
+        <v>0.3597</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.3506</v>
+        <v>0.3597</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.3358</v>
+        <v>0.3468</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.3658</v>
+        <v>0.3768</v>
       </c>
     </row>
     <row r="18">
@@ -2250,100 +2250,100 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3268</v>
+        <v>0.3473</v>
       </c>
       <c r="C18" t="n">
-        <v>0.327</v>
+        <v>0.3476</v>
       </c>
       <c r="D18" t="n">
-        <v>0.327</v>
+        <v>0.3474</v>
       </c>
       <c r="E18" t="n">
-        <v>0.327</v>
+        <v>0.3474</v>
       </c>
       <c r="F18" t="n">
-        <v>0.327</v>
+        <v>0.3474</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3271</v>
+        <v>0.3473</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3269</v>
+        <v>0.3474</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3266</v>
+        <v>0.3475</v>
       </c>
       <c r="J18" t="n">
-        <v>0.327</v>
+        <v>0.3473</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3271</v>
+        <v>0.3473</v>
       </c>
       <c r="L18" t="n">
-        <v>0.327</v>
+        <v>0.3472</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3266</v>
+        <v>0.3473</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3266</v>
+        <v>0.3473</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3265</v>
+        <v>0.3473</v>
       </c>
       <c r="P18" t="n">
-        <v>0.327</v>
+        <v>0.3473</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.327</v>
+        <v>0.3473</v>
       </c>
       <c r="R18" t="n">
-        <v>0.327</v>
+        <v>0.3472</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3267</v>
+        <v>0.3472</v>
       </c>
       <c r="T18" t="n">
-        <v>0.327</v>
+        <v>0.3472</v>
       </c>
       <c r="U18" t="n">
-        <v>0.327</v>
+        <v>0.3469</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3266</v>
+        <v>0.3471</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3268</v>
+        <v>0.3473</v>
       </c>
       <c r="X18" t="n">
-        <v>0.3267</v>
+        <v>0.3469</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.3266</v>
+        <v>0.3472</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.3266</v>
+        <v>0.3473</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.3266</v>
+        <v>0.3472</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.3265</v>
+        <v>0.3472</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3261</v>
+        <v>0.3472</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.3267</v>
+        <v>0.3473</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.3267</v>
+        <v>0.3473</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.3118</v>
+        <v>0.323</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.3418</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="19">
@@ -2353,100 +2353,100 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3525</v>
+        <v>0.3715</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3524</v>
+        <v>0.3717</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3524</v>
+        <v>0.3717</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3524</v>
+        <v>0.3716</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3524</v>
+        <v>0.3716</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3524</v>
+        <v>0.3715</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3524</v>
+        <v>0.3716</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3524</v>
+        <v>0.3717</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3524</v>
+        <v>0.3716</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3524</v>
+        <v>0.3715</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3524</v>
+        <v>0.3715</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3524</v>
+        <v>0.3715</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3524</v>
+        <v>0.3716</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3523</v>
+        <v>0.3715</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3524</v>
+        <v>0.3715</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3524</v>
+        <v>0.3715</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3524</v>
+        <v>0.3715</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3524</v>
+        <v>0.3714</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3524</v>
+        <v>0.3714</v>
       </c>
       <c r="U19" t="n">
-        <v>0.3524</v>
+        <v>0.3712</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3524</v>
+        <v>0.3714</v>
       </c>
       <c r="W19" t="n">
-        <v>0.3525</v>
+        <v>0.3715</v>
       </c>
       <c r="X19" t="n">
-        <v>0.3524</v>
+        <v>0.371</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.3524</v>
+        <v>0.3715</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.3525</v>
+        <v>0.3715</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.3524</v>
+        <v>0.3715</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.3523</v>
+        <v>0.3715</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.3518</v>
+        <v>0.3715</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.3525</v>
+        <v>0.3715</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.3525</v>
+        <v>0.3716</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.3374</v>
+        <v>0.3468</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.3674</v>
+        <v>0.3768</v>
       </c>
     </row>
     <row r="20">
@@ -2456,100 +2456,100 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3359</v>
+        <v>0.3301</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3355</v>
+        <v>0.3302</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3354</v>
+        <v>0.3302</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3355</v>
+        <v>0.3301</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3358</v>
+        <v>0.3301</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3359</v>
+        <v>0.3301</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3354</v>
+        <v>0.33</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3355</v>
+        <v>0.3301</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3359</v>
+        <v>0.33</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3363</v>
+        <v>0.3301</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3363</v>
+        <v>0.33</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3352</v>
+        <v>0.3299</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3361</v>
+        <v>0.33</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3364</v>
+        <v>0.3299</v>
       </c>
       <c r="P20" t="n">
-        <v>0.3357</v>
+        <v>0.3301</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3357</v>
+        <v>0.33</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3354</v>
+        <v>0.3301</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3355</v>
+        <v>0.3301</v>
       </c>
       <c r="T20" t="n">
-        <v>0.3357</v>
+        <v>0.3301</v>
       </c>
       <c r="U20" t="n">
-        <v>0.336</v>
+        <v>0.33</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3353</v>
+        <v>0.3301</v>
       </c>
       <c r="W20" t="n">
-        <v>0.3354</v>
+        <v>0.3301</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3353</v>
+        <v>0.33</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.3354</v>
+        <v>0.3299</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.3353</v>
+        <v>0.3301</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.3354</v>
+        <v>0.33</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.3362</v>
+        <v>0.33</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.336</v>
+        <v>0.33</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.3354</v>
+        <v>0.3301</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.3352</v>
+        <v>0.3301</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.3207</v>
+        <v>0.323</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.3507</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="21">
@@ -2559,100 +2559,100 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3564</v>
+        <v>0.3575</v>
       </c>
       <c r="C21" t="n">
-        <v>0.356</v>
+        <v>0.3576</v>
       </c>
       <c r="D21" t="n">
-        <v>0.356</v>
+        <v>0.3576</v>
       </c>
       <c r="E21" t="n">
-        <v>0.356</v>
+        <v>0.3576</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3559</v>
+        <v>0.3575</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3559</v>
+        <v>0.3576</v>
       </c>
       <c r="H21" t="n">
-        <v>0.356</v>
+        <v>0.3574</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3561</v>
+        <v>0.3575</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3559</v>
+        <v>0.3575</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3559</v>
+        <v>0.3575</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3559</v>
+        <v>0.3574</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3561</v>
+        <v>0.3574</v>
       </c>
       <c r="N21" t="n">
-        <v>0.3566</v>
+        <v>0.3575</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3567</v>
+        <v>0.3574</v>
       </c>
       <c r="P21" t="n">
-        <v>0.3559</v>
+        <v>0.3575</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3559</v>
+        <v>0.3574</v>
       </c>
       <c r="R21" t="n">
-        <v>0.356</v>
+        <v>0.3575</v>
       </c>
       <c r="S21" t="n">
-        <v>0.356</v>
+        <v>0.3575</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3559</v>
+        <v>0.3575</v>
       </c>
       <c r="U21" t="n">
-        <v>0.3559</v>
+        <v>0.3575</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3561</v>
+        <v>0.3575</v>
       </c>
       <c r="W21" t="n">
-        <v>0.356</v>
+        <v>0.3575</v>
       </c>
       <c r="X21" t="n">
-        <v>0.356</v>
+        <v>0.3574</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.3561</v>
+        <v>0.3574</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.3561</v>
+        <v>0.3575</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.356</v>
+        <v>0.3574</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.3566</v>
+        <v>0.3574</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.3566</v>
+        <v>0.3574</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.356</v>
+        <v>0.3575</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.356</v>
+        <v>0.3575</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.3411</v>
+        <v>0.3468</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.3711</v>
+        <v>0.3768</v>
       </c>
     </row>
     <row r="22">
@@ -2662,100 +2662,100 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3301</v>
+        <v>0.3328</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3304</v>
+        <v>0.333</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3304</v>
+        <v>0.3331</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3304</v>
+        <v>0.333</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3304</v>
+        <v>0.3332</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3304</v>
+        <v>0.333</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3304</v>
+        <v>0.3331</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3299</v>
+        <v>0.3331</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3304</v>
+        <v>0.3331</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3304</v>
+        <v>0.333</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3304</v>
+        <v>0.3331</v>
       </c>
       <c r="M22" t="n">
-        <v>0.33</v>
+        <v>0.333</v>
       </c>
       <c r="N22" t="n">
-        <v>0.33</v>
+        <v>0.333</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3299</v>
+        <v>0.333</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3304</v>
+        <v>0.3329</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.3304</v>
+        <v>0.3329</v>
       </c>
       <c r="R22" t="n">
-        <v>0.3304</v>
+        <v>0.3331</v>
       </c>
       <c r="S22" t="n">
-        <v>0.3303</v>
+        <v>0.3332</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3304</v>
+        <v>0.333</v>
       </c>
       <c r="U22" t="n">
-        <v>0.3304</v>
+        <v>0.3329</v>
       </c>
       <c r="V22" t="n">
-        <v>0.33</v>
+        <v>0.3329</v>
       </c>
       <c r="W22" t="n">
-        <v>0.3304</v>
+        <v>0.3329</v>
       </c>
       <c r="X22" t="n">
-        <v>0.3303</v>
+        <v>0.3329</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.33</v>
+        <v>0.333</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.3302</v>
+        <v>0.3331</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.3301</v>
+        <v>0.333</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.3299</v>
+        <v>0.3331</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.3299</v>
+        <v>0.3332</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.3304</v>
+        <v>0.333</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.3302</v>
+        <v>0.333</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.3152</v>
+        <v>0.323</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.3452</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="23">
@@ -2765,100 +2765,100 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3516</v>
+        <v>0.3598</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3516</v>
+        <v>0.36</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3515</v>
+        <v>0.36</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3515</v>
+        <v>0.3599</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3515</v>
+        <v>0.3601</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3515</v>
+        <v>0.36</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3515</v>
+        <v>0.36</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3516</v>
+        <v>0.36</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3515</v>
+        <v>0.36</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3516</v>
+        <v>0.3599</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3515</v>
+        <v>0.36</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3517</v>
+        <v>0.3599</v>
       </c>
       <c r="N23" t="n">
-        <v>0.3516</v>
+        <v>0.3599</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3517</v>
+        <v>0.3599</v>
       </c>
       <c r="P23" t="n">
-        <v>0.3515</v>
+        <v>0.3599</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3515</v>
+        <v>0.3598</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3515</v>
+        <v>0.36</v>
       </c>
       <c r="S23" t="n">
-        <v>0.3516</v>
+        <v>0.36</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3515</v>
+        <v>0.3599</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3515</v>
+        <v>0.3599</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3516</v>
+        <v>0.3599</v>
       </c>
       <c r="W23" t="n">
-        <v>0.3516</v>
+        <v>0.3599</v>
       </c>
       <c r="X23" t="n">
-        <v>0.3516</v>
+        <v>0.3599</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.3516</v>
+        <v>0.3599</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.3516</v>
+        <v>0.36</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.3516</v>
+        <v>0.3599</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.3517</v>
+        <v>0.36</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.3517</v>
+        <v>0.36</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.3516</v>
+        <v>0.36</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.3516</v>
+        <v>0.3599</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.3366</v>
+        <v>0.3468</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.3666</v>
+        <v>0.3768</v>
       </c>
     </row>
     <row r="24">
@@ -2868,100 +2868,100 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3299</v>
+        <v>0.3533</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3297</v>
+        <v>0.3532</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3299</v>
+        <v>0.3533</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3299</v>
+        <v>0.3531</v>
       </c>
       <c r="F24" t="n">
-        <v>0.33</v>
+        <v>0.3531</v>
       </c>
       <c r="G24" t="n">
-        <v>0.33</v>
+        <v>0.3531</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3299</v>
+        <v>0.3531</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3302</v>
+        <v>0.3531</v>
       </c>
       <c r="J24" t="n">
-        <v>0.33</v>
+        <v>0.353</v>
       </c>
       <c r="K24" t="n">
-        <v>0.33</v>
+        <v>0.3531</v>
       </c>
       <c r="L24" t="n">
-        <v>0.33</v>
+        <v>0.353</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3306</v>
+        <v>0.3531</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3306</v>
+        <v>0.3529</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3305</v>
+        <v>0.3531</v>
       </c>
       <c r="P24" t="n">
-        <v>0.3299</v>
+        <v>0.353</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3299</v>
+        <v>0.3528</v>
       </c>
       <c r="R24" t="n">
-        <v>0.3298</v>
+        <v>0.353</v>
       </c>
       <c r="S24" t="n">
-        <v>0.3296</v>
+        <v>0.3529</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3299</v>
+        <v>0.3529</v>
       </c>
       <c r="U24" t="n">
-        <v>0.3298</v>
+        <v>0.353</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3305</v>
+        <v>0.3529</v>
       </c>
       <c r="W24" t="n">
-        <v>0.3299</v>
+        <v>0.3529</v>
       </c>
       <c r="X24" t="n">
-        <v>0.33</v>
+        <v>0.353</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3306</v>
+        <v>0.3529</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.3305</v>
+        <v>0.3529</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.3303</v>
+        <v>0.3529</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.3305</v>
+        <v>0.3529</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.3305</v>
+        <v>0.353</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.3303</v>
+        <v>0.353</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.3304</v>
+        <v>0.353</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.3151</v>
+        <v>0.323</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.3451</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="25">
@@ -2971,100 +2971,100 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3536</v>
+        <v>0.3744</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3535</v>
+        <v>0.3744</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3536</v>
+        <v>0.3744</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3536</v>
+        <v>0.3743</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3536</v>
+        <v>0.3743</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3537</v>
+        <v>0.3743</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3537</v>
+        <v>0.3742</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3538</v>
+        <v>0.3743</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3537</v>
+        <v>0.3742</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3537</v>
+        <v>0.3742</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3537</v>
+        <v>0.3742</v>
       </c>
       <c r="M25" t="n">
-        <v>0.354</v>
+        <v>0.3742</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3541</v>
+        <v>0.3742</v>
       </c>
       <c r="O25" t="n">
-        <v>0.354</v>
+        <v>0.3742</v>
       </c>
       <c r="P25" t="n">
-        <v>0.3536</v>
+        <v>0.3742</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3537</v>
+        <v>0.3741</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3536</v>
+        <v>0.3742</v>
       </c>
       <c r="S25" t="n">
-        <v>0.3533</v>
+        <v>0.3741</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3536</v>
+        <v>0.3741</v>
       </c>
       <c r="U25" t="n">
-        <v>0.3536</v>
+        <v>0.3742</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3541</v>
+        <v>0.3741</v>
       </c>
       <c r="W25" t="n">
-        <v>0.3537</v>
+        <v>0.3741</v>
       </c>
       <c r="X25" t="n">
-        <v>0.3537</v>
+        <v>0.3742</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.354</v>
+        <v>0.3741</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.354</v>
+        <v>0.3742</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.3539</v>
+        <v>0.3742</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.354</v>
+        <v>0.3741</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.3541</v>
+        <v>0.3742</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.3539</v>
+        <v>0.3742</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.3539</v>
+        <v>0.3742</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.3388</v>
+        <v>0.3468</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.3688</v>
+        <v>0.3768</v>
       </c>
     </row>
   </sheetData>

--- a/a2_RyR_Analyser/a2_output/Target_with_limits.xlsx
+++ b/a2_RyR_Analyser/a2_output/Target_with_limits.xlsx
@@ -602,100 +602,100 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3241</v>
+        <v>0.3288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3242</v>
+        <v>0.3289</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3236</v>
+        <v>0.3289</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3234</v>
+        <v>0.3289</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3246</v>
+        <v>0.3289</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3246</v>
+        <v>0.3289</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3242</v>
+        <v>0.3289</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3243</v>
+        <v>0.3289</v>
       </c>
       <c r="J2" t="n">
-        <v>0.324</v>
+        <v>0.3289</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3245</v>
+        <v>0.3283</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3236</v>
+        <v>0.3286</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3246</v>
+        <v>0.3281</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3236</v>
+        <v>0.3274</v>
       </c>
       <c r="O2" t="n">
-        <v>0.324</v>
+        <v>0.3278</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3242</v>
+        <v>0.328</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3238</v>
+        <v>0.3286</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3245</v>
+        <v>0.3289</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3238</v>
+        <v>0.3289</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3244</v>
+        <v>0.3289</v>
       </c>
       <c r="U2" t="n">
-        <v>0.323</v>
+        <v>0.3289</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3241</v>
+        <v>0.3289</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3238</v>
+        <v>0.3289</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3241</v>
+        <v>0.3283</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3243</v>
+        <v>0.3289</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.324</v>
+        <v>0.3289</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3238</v>
+        <v>0.3278</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.324</v>
+        <v>0.328</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.3235</v>
+        <v>0.3262</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3236</v>
+        <v>0.3284</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.3238</v>
+        <v>0.3283</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.323</v>
+        <v>0.318</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.348</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="3">
@@ -705,100 +705,100 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3532</v>
+        <v>0.3503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3532</v>
+        <v>0.3503</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3527</v>
+        <v>0.3503</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3526</v>
+        <v>0.3503</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3536</v>
+        <v>0.3503</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3536</v>
+        <v>0.3503</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3534</v>
+        <v>0.3503</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3535</v>
+        <v>0.3503</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3531</v>
+        <v>0.3503</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3533</v>
+        <v>0.35</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3527</v>
+        <v>0.3501</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3535</v>
+        <v>0.35</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3526</v>
+        <v>0.3496</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3531</v>
+        <v>0.3498</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3533</v>
+        <v>0.3498</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3529</v>
+        <v>0.3501</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3533</v>
+        <v>0.3503</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3529</v>
+        <v>0.3503</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3533</v>
+        <v>0.3503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3523</v>
+        <v>0.3503</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3531</v>
+        <v>0.3503</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3527</v>
+        <v>0.3503</v>
       </c>
       <c r="X3" t="n">
-        <v>0.3533</v>
+        <v>0.35</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3532</v>
+        <v>0.3503</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.3531</v>
+        <v>0.3503</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.353</v>
+        <v>0.3499</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.3529</v>
+        <v>0.3499</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.3526</v>
+        <v>0.3493</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.3526</v>
+        <v>0.3502</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.3529</v>
+        <v>0.35</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.3468</v>
+        <v>0.3178</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.3768</v>
+        <v>0.3478</v>
       </c>
     </row>
     <row r="4">
@@ -808,100 +808,100 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3364</v>
+        <v>0.3345</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3362</v>
+        <v>0.3345</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3359</v>
+        <v>0.3344</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3358</v>
+        <v>0.3339</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3364</v>
+        <v>0.3344</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3364</v>
+        <v>0.3344</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3362</v>
+        <v>0.334</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3363</v>
+        <v>0.3342</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3363</v>
+        <v>0.3341</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3362</v>
+        <v>0.3341</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3361</v>
+        <v>0.3341</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3364</v>
+        <v>0.3339</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3357</v>
+        <v>0.3338</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3362</v>
+        <v>0.3339</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3363</v>
+        <v>0.3342</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.336</v>
+        <v>0.3343</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3363</v>
+        <v>0.3341</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3359</v>
+        <v>0.334</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3363</v>
+        <v>0.3341</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3356</v>
+        <v>0.3341</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3362</v>
+        <v>0.3341</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3358</v>
+        <v>0.3342</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3364</v>
+        <v>0.3342</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3361</v>
+        <v>0.3342</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.3362</v>
+        <v>0.334</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3363</v>
+        <v>0.3332</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3357</v>
+        <v>0.3338</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3358</v>
+        <v>0.3331</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.3358</v>
+        <v>0.3336</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.3362</v>
+        <v>0.3335</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.323</v>
+        <v>0.3267</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.348</v>
+        <v>0.3517</v>
       </c>
     </row>
     <row r="5">
@@ -911,100 +911,100 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.361</v>
+        <v>0.3577</v>
       </c>
       <c r="C5" t="n">
-        <v>0.361</v>
+        <v>0.3577</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3606</v>
+        <v>0.3575</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3606</v>
+        <v>0.3573</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3611</v>
+        <v>0.3575</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3611</v>
+        <v>0.3576</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3609</v>
+        <v>0.3573</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3611</v>
+        <v>0.3574</v>
       </c>
       <c r="J5" t="n">
-        <v>0.361</v>
+        <v>0.3573</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3609</v>
+        <v>0.3573</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3607</v>
+        <v>0.3573</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3611</v>
+        <v>0.3573</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3604</v>
+        <v>0.3572</v>
       </c>
       <c r="O5" t="n">
-        <v>0.361</v>
+        <v>0.3572</v>
       </c>
       <c r="P5" t="n">
-        <v>0.361</v>
+        <v>0.3573</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3607</v>
+        <v>0.3575</v>
       </c>
       <c r="R5" t="n">
-        <v>0.361</v>
+        <v>0.3573</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3607</v>
+        <v>0.3573</v>
       </c>
       <c r="T5" t="n">
-        <v>0.361</v>
+        <v>0.3573</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3604</v>
+        <v>0.3573</v>
       </c>
       <c r="V5" t="n">
-        <v>0.3609</v>
+        <v>0.3573</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3605</v>
+        <v>0.3574</v>
       </c>
       <c r="X5" t="n">
-        <v>0.3611</v>
+        <v>0.3575</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3608</v>
+        <v>0.3575</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.3609</v>
+        <v>0.3577</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.361</v>
+        <v>0.3576</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3605</v>
+        <v>0.3576</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3605</v>
+        <v>0.3575</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.3605</v>
+        <v>0.3577</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.3609</v>
+        <v>0.3574</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.3468</v>
+        <v>0.3162</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.3768</v>
+        <v>0.3462</v>
       </c>
     </row>
     <row r="6">
@@ -1014,100 +1014,100 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3453</v>
+        <v>0.3392</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3458</v>
+        <v>0.3391</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3453</v>
+        <v>0.3388</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3454</v>
+        <v>0.3388</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3456</v>
+        <v>0.3388</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3457</v>
+        <v>0.3388</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3457</v>
+        <v>0.3388</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3457</v>
+        <v>0.3389</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3456</v>
+        <v>0.3388</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3454</v>
+        <v>0.3388</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3453</v>
+        <v>0.3388</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3455</v>
+        <v>0.3388</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3456</v>
+        <v>0.3389</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3455</v>
+        <v>0.3389</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3454</v>
+        <v>0.3389</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.3452</v>
+        <v>0.339</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3454</v>
+        <v>0.339</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3451</v>
+        <v>0.3389</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3454</v>
+        <v>0.339</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3451</v>
+        <v>0.3389</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3451</v>
+        <v>0.3388</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3451</v>
+        <v>0.3386</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3454</v>
+        <v>0.3389</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3453</v>
+        <v>0.3389</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3455</v>
+        <v>0.3385</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3453</v>
+        <v>0.3386</v>
       </c>
       <c r="AB6" t="n">
+        <v>0.3384</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.3386</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.3384</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.3386</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.3199</v>
+      </c>
+      <c r="AG6" t="n">
         <v>0.3449</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.3455</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.3456</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.3451</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.323</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.348</v>
       </c>
     </row>
     <row r="7">
@@ -1117,100 +1117,100 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3704</v>
+        <v>0.3659</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3707</v>
+        <v>0.3659</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3703</v>
+        <v>0.3657</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3704</v>
+        <v>0.3657</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3706</v>
+        <v>0.3657</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3706</v>
+        <v>0.3656</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3706</v>
+        <v>0.3656</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3707</v>
+        <v>0.3657</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3705</v>
+        <v>0.3656</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3704</v>
+        <v>0.3656</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3702</v>
+        <v>0.3656</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3705</v>
+        <v>0.3657</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3704</v>
+        <v>0.3657</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3705</v>
+        <v>0.3657</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3704</v>
+        <v>0.3657</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3701</v>
+        <v>0.3657</v>
       </c>
       <c r="R7" t="n">
-        <v>0.3704</v>
+        <v>0.3657</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3701</v>
+        <v>0.3657</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3704</v>
+        <v>0.3657</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3701</v>
+        <v>0.3657</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3702</v>
+        <v>0.3656</v>
       </c>
       <c r="W7" t="n">
-        <v>0.3701</v>
+        <v>0.3655</v>
       </c>
       <c r="X7" t="n">
-        <v>0.3705</v>
+        <v>0.3657</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3703</v>
+        <v>0.3657</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3704</v>
+        <v>0.3656</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3704</v>
+        <v>0.3656</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.3701</v>
+        <v>0.3654</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3703</v>
+        <v>0.3656</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.3704</v>
+        <v>0.3655</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.3702</v>
+        <v>0.3655</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.3468</v>
+        <v>0.3243</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.3768</v>
+        <v>0.3543</v>
       </c>
     </row>
     <row r="8">
@@ -1220,100 +1220,100 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.322</v>
+        <v>0.3275</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3219</v>
+        <v>0.3275</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3218</v>
+        <v>0.3273</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3216</v>
+        <v>0.3274</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3216</v>
+        <v>0.3273</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3216</v>
+        <v>0.3274</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3217</v>
+        <v>0.3274</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3214</v>
+        <v>0.3274</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3214</v>
+        <v>0.3273</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3213</v>
+        <v>0.3272</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3214</v>
+        <v>0.3272</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3213</v>
+        <v>0.3267</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3212</v>
+        <v>0.3271</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3211</v>
+        <v>0.3268</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3213</v>
+        <v>0.3272</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3211</v>
+        <v>0.3272</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3212</v>
+        <v>0.3274</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3211</v>
+        <v>0.3274</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3211</v>
+        <v>0.3274</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3208</v>
+        <v>0.3274</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3209</v>
+        <v>0.3274</v>
       </c>
       <c r="W8" t="n">
-        <v>0.321</v>
+        <v>0.3272</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3216</v>
+        <v>0.3273</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3214</v>
+        <v>0.3276</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3214</v>
+        <v>0.3272</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3212</v>
+        <v>0.3254</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.3211</v>
+        <v>0.327</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.321</v>
+        <v>0.3249</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.3209</v>
+        <v>0.3265</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.3209</v>
+        <v>0.3272</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.323</v>
+        <v>0.318</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.348</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="9">
@@ -1323,100 +1323,100 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3501</v>
+        <v>0.3472</v>
       </c>
       <c r="C9" t="n">
-        <v>0.35</v>
+        <v>0.3472</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3498</v>
+        <v>0.3471</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3498</v>
+        <v>0.3471</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3497</v>
+        <v>0.347</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3497</v>
+        <v>0.3471</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3497</v>
+        <v>0.3471</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3496</v>
+        <v>0.3471</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3495</v>
+        <v>0.3471</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3494</v>
+        <v>0.347</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3494</v>
+        <v>0.347</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3494</v>
+        <v>0.3467</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3493</v>
+        <v>0.347</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3492</v>
+        <v>0.3468</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3493</v>
+        <v>0.347</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.3492</v>
+        <v>0.347</v>
       </c>
       <c r="R9" t="n">
-        <v>0.3492</v>
+        <v>0.3471</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3492</v>
+        <v>0.3471</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3492</v>
+        <v>0.3471</v>
       </c>
       <c r="U9" t="n">
-        <v>0.349</v>
+        <v>0.3471</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3491</v>
+        <v>0.3471</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3491</v>
+        <v>0.347</v>
       </c>
       <c r="X9" t="n">
-        <v>0.3497</v>
+        <v>0.3471</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3494</v>
+        <v>0.3472</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.3494</v>
+        <v>0.347</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.3493</v>
+        <v>0.3465</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.3492</v>
+        <v>0.347</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.3491</v>
+        <v>0.3463</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.3491</v>
+        <v>0.3467</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.3468</v>
+        <v>0.3178</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.3768</v>
+        <v>0.3478</v>
       </c>
     </row>
     <row r="10">
@@ -1426,100 +1426,100 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3346</v>
+        <v>0.3349</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3347</v>
+        <v>0.335</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3347</v>
+        <v>0.3342</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3346</v>
+        <v>0.334</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3348</v>
+        <v>0.3341</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3345</v>
+        <v>0.3342</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3347</v>
+        <v>0.3341</v>
       </c>
       <c r="I10" t="n">
+        <v>0.3344</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3343</v>
+      </c>
+      <c r="N10" t="n">
         <v>0.3342</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.3342</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.3343</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.3342</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.3342</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.3343</v>
       </c>
       <c r="O10" t="n">
         <v>0.3346</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3346</v>
+        <v>0.3341</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3346</v>
+        <v>0.3341</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3344</v>
+        <v>0.3341</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3345</v>
+        <v>0.3343</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3342</v>
+        <v>0.3341</v>
       </c>
       <c r="U10" t="n">
         <v>0.3343</v>
       </c>
       <c r="V10" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.3345</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.3346</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.3342</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.3343</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.3337</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.3343</v>
+      </c>
+      <c r="AC10" t="n">
         <v>0.3344</v>
       </c>
-      <c r="W10" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.3343</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.3347</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.3344</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0.3342</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0.3343</v>
-      </c>
       <c r="AD10" t="n">
-        <v>0.3341</v>
+        <v>0.3336</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.3343</v>
+        <v>0.3332</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.323</v>
+        <v>0.3267</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.348</v>
+        <v>0.3517</v>
       </c>
     </row>
     <row r="11">
@@ -1529,100 +1529,100 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3605</v>
+        <v>0.3588</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3605</v>
+        <v>0.3588</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3605</v>
+        <v>0.3584</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3604</v>
+        <v>0.3581</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3606</v>
+        <v>0.3582</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3603</v>
+        <v>0.3583</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3605</v>
+        <v>0.3581</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3601</v>
+        <v>0.3583</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3601</v>
+        <v>0.3581</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3601</v>
+        <v>0.3581</v>
       </c>
       <c r="L11" t="n">
-        <v>0.36</v>
+        <v>0.3581</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3601</v>
+        <v>0.3584</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3601</v>
+        <v>0.3581</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3603</v>
+        <v>0.3584</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3603</v>
+        <v>0.3581</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3603</v>
+        <v>0.3581</v>
       </c>
       <c r="R11" t="n">
-        <v>0.3601</v>
+        <v>0.3581</v>
       </c>
       <c r="S11" t="n">
-        <v>0.3602</v>
+        <v>0.3583</v>
       </c>
       <c r="T11" t="n">
-        <v>0.36</v>
+        <v>0.3581</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3601</v>
+        <v>0.3583</v>
       </c>
       <c r="V11" t="n">
-        <v>0.3601</v>
+        <v>0.3581</v>
       </c>
       <c r="W11" t="n">
-        <v>0.3599</v>
+        <v>0.3584</v>
       </c>
       <c r="X11" t="n">
-        <v>0.3602</v>
+        <v>0.3586</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.3604</v>
+        <v>0.3584</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.3602</v>
+        <v>0.3586</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.3599</v>
+        <v>0.3583</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.36</v>
+        <v>0.3587</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.3601</v>
+        <v>0.3585</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.3599</v>
+        <v>0.3584</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.3468</v>
+        <v>0.3162</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.3768</v>
+        <v>0.3462</v>
       </c>
     </row>
     <row r="12">
@@ -1632,100 +1632,100 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3417</v>
+        <v>0.3336</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3417</v>
+        <v>0.3335</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3411</v>
+        <v>0.3335</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3415</v>
+        <v>0.3335</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3415</v>
+        <v>0.3337</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3415</v>
+        <v>0.3337</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3413</v>
+        <v>0.3337</v>
       </c>
       <c r="I12" t="n">
-        <v>0.3414</v>
+        <v>0.3337</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3415</v>
+        <v>0.3337</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3409</v>
+        <v>0.3337</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3412</v>
+        <v>0.3337</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3407</v>
+        <v>0.3338</v>
       </c>
       <c r="N12" t="n">
-        <v>0.341</v>
+        <v>0.3337</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3408</v>
+        <v>0.3337</v>
       </c>
       <c r="P12" t="n">
-        <v>0.3409</v>
+        <v>0.3337</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3408</v>
+        <v>0.3337</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3407</v>
+        <v>0.3337</v>
       </c>
       <c r="S12" t="n">
-        <v>0.341</v>
+        <v>0.3337</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3407</v>
+        <v>0.3337</v>
       </c>
       <c r="U12" t="n">
-        <v>0.3409</v>
+        <v>0.3337</v>
       </c>
       <c r="V12" t="n">
-        <v>0.3409</v>
+        <v>0.3337</v>
       </c>
       <c r="W12" t="n">
-        <v>0.341</v>
+        <v>0.3337</v>
       </c>
       <c r="X12" t="n">
-        <v>0.3411</v>
+        <v>0.3337</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.3407</v>
+        <v>0.3337</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.3409</v>
+        <v>0.3341</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.3411</v>
+        <v>0.334</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.341</v>
+        <v>0.3341</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.3409</v>
+        <v>0.3336</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.3411</v>
+        <v>0.334</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.3405</v>
+        <v>0.3338</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.323</v>
+        <v>0.3199</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.348</v>
+        <v>0.3449</v>
       </c>
     </row>
     <row r="13">
@@ -1735,100 +1735,100 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3683</v>
+        <v>0.3627</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3683</v>
+        <v>0.3626</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3678</v>
+        <v>0.3626</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3682</v>
+        <v>0.3625</v>
       </c>
       <c r="F13" t="n">
-        <v>0.368</v>
+        <v>0.3626</v>
       </c>
       <c r="G13" t="n">
-        <v>0.368</v>
+        <v>0.3626</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3679</v>
+        <v>0.3626</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3681</v>
+        <v>0.3626</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3681</v>
+        <v>0.3626</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3677</v>
+        <v>0.3626</v>
       </c>
       <c r="L13" t="n">
-        <v>0.368</v>
+        <v>0.3626</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3676</v>
+        <v>0.3627</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3678</v>
+        <v>0.3626</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3676</v>
+        <v>0.3626</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3676</v>
+        <v>0.3626</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.3676</v>
+        <v>0.3626</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3677</v>
+        <v>0.3626</v>
       </c>
       <c r="S13" t="n">
-        <v>0.3678</v>
+        <v>0.3626</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3677</v>
+        <v>0.3626</v>
       </c>
       <c r="U13" t="n">
-        <v>0.3676</v>
+        <v>0.3626</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3675</v>
+        <v>0.3626</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3677</v>
+        <v>0.3627</v>
       </c>
       <c r="X13" t="n">
-        <v>0.3679</v>
+        <v>0.3627</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.3675</v>
+        <v>0.3627</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.3677</v>
+        <v>0.363</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.3679</v>
+        <v>0.3629</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.3676</v>
+        <v>0.363</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.3676</v>
+        <v>0.3626</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.3676</v>
+        <v>0.363</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.3674</v>
+        <v>0.3628</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.3468</v>
+        <v>0.3243</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.3768</v>
+        <v>0.3543</v>
       </c>
     </row>
     <row r="14">
@@ -1838,100 +1838,100 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3287</v>
+        <v>0.3332</v>
       </c>
       <c r="C14" t="n">
-        <v>0.329</v>
+        <v>0.3335</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3288</v>
+        <v>0.3334</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3291</v>
+        <v>0.3336</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3291</v>
+        <v>0.3335</v>
       </c>
       <c r="G14" t="n">
-        <v>0.329</v>
+        <v>0.3336</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3291</v>
+        <v>0.3336</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3291</v>
+        <v>0.3336</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3289</v>
+        <v>0.3332</v>
       </c>
       <c r="K14" t="n">
-        <v>0.329</v>
+        <v>0.3333</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3289</v>
+        <v>0.3333</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3289</v>
+        <v>0.333</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3291</v>
+        <v>0.3327</v>
       </c>
       <c r="O14" t="n">
-        <v>0.329</v>
+        <v>0.3329</v>
       </c>
       <c r="P14" t="n">
-        <v>0.329</v>
+        <v>0.3334</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3289</v>
+        <v>0.3335</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3291</v>
+        <v>0.3331</v>
       </c>
       <c r="S14" t="n">
-        <v>0.329</v>
+        <v>0.3336</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3288</v>
+        <v>0.3336</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3282</v>
+        <v>0.3336</v>
       </c>
       <c r="V14" t="n">
-        <v>0.329</v>
+        <v>0.3331</v>
       </c>
       <c r="W14" t="n">
-        <v>0.3291</v>
+        <v>0.3332</v>
       </c>
       <c r="X14" t="n">
-        <v>0.327</v>
+        <v>0.3335</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.329</v>
+        <v>0.3336</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.329</v>
+        <v>0.3333</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.329</v>
+        <v>0.3335</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.3289</v>
+        <v>0.3332</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.329</v>
+        <v>0.3335</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.3291</v>
+        <v>0.3326</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.3294</v>
+        <v>0.3321</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.323</v>
+        <v>0.318</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.348</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="15">
@@ -1941,100 +1941,100 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3568</v>
+        <v>0.3515</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3571</v>
+        <v>0.3517</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3569</v>
+        <v>0.3518</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3571</v>
+        <v>0.3518</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3572</v>
+        <v>0.3518</v>
       </c>
       <c r="G15" t="n">
-        <v>0.357</v>
+        <v>0.3518</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3571</v>
+        <v>0.3518</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3572</v>
+        <v>0.3518</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3571</v>
+        <v>0.3515</v>
       </c>
       <c r="K15" t="n">
-        <v>0.3571</v>
+        <v>0.3516</v>
       </c>
       <c r="L15" t="n">
-        <v>0.3569</v>
+        <v>0.3517</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3571</v>
+        <v>0.3515</v>
       </c>
       <c r="N15" t="n">
-        <v>0.3571</v>
+        <v>0.3513</v>
       </c>
       <c r="O15" t="n">
-        <v>0.357</v>
+        <v>0.3514</v>
       </c>
       <c r="P15" t="n">
-        <v>0.3571</v>
+        <v>0.3517</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.357</v>
+        <v>0.3518</v>
       </c>
       <c r="R15" t="n">
-        <v>0.3571</v>
+        <v>0.3515</v>
       </c>
       <c r="S15" t="n">
-        <v>0.357</v>
+        <v>0.3518</v>
       </c>
       <c r="T15" t="n">
-        <v>0.3568</v>
+        <v>0.3518</v>
       </c>
       <c r="U15" t="n">
-        <v>0.3563</v>
+        <v>0.3518</v>
       </c>
       <c r="V15" t="n">
-        <v>0.357</v>
+        <v>0.3515</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3571</v>
+        <v>0.3515</v>
       </c>
       <c r="X15" t="n">
-        <v>0.3551</v>
+        <v>0.3518</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.357</v>
+        <v>0.3518</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.357</v>
+        <v>0.3517</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.357</v>
+        <v>0.3518</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.357</v>
+        <v>0.3516</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.357</v>
+        <v>0.3518</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.3571</v>
+        <v>0.3514</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.3572</v>
+        <v>0.3512</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.3468</v>
+        <v>0.3178</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.3768</v>
+        <v>0.3478</v>
       </c>
     </row>
     <row r="16">
@@ -2044,100 +2044,100 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3314</v>
+        <v>0.3306</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3315</v>
+        <v>0.3306</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3315</v>
+        <v>0.3304</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3314</v>
+        <v>0.3303</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3314</v>
+        <v>0.3303</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3315</v>
+        <v>0.3303</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3316</v>
+        <v>0.3303</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3315</v>
+        <v>0.3303</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3314</v>
+        <v>0.3304</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3314</v>
+        <v>0.3304</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3314</v>
+        <v>0.3303</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3314</v>
+        <v>0.3301</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3315</v>
+        <v>0.3301</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3315</v>
+        <v>0.33</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3315</v>
+        <v>0.3303</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3315</v>
+        <v>0.3302</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3315</v>
+        <v>0.3304</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3314</v>
+        <v>0.3303</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3314</v>
+        <v>0.3304</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3311</v>
+        <v>0.3303</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3314</v>
+        <v>0.3303</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3315</v>
+        <v>0.3303</v>
       </c>
       <c r="X16" t="n">
-        <v>0.3304</v>
+        <v>0.3302</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3315</v>
+        <v>0.3303</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.3315</v>
+        <v>0.3303</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.3315</v>
+        <v>0.3303</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.3316</v>
+        <v>0.3301</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3316</v>
+        <v>0.3303</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.3315</v>
+        <v>0.3302</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.3315</v>
+        <v>0.3303</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.323</v>
+        <v>0.3267</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.348</v>
+        <v>0.3517</v>
       </c>
     </row>
     <row r="17">
@@ -2147,100 +2147,100 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3596</v>
+        <v>0.3578</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3597</v>
+        <v>0.3578</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3597</v>
+        <v>0.3576</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3596</v>
+        <v>0.3576</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3596</v>
+        <v>0.3576</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3597</v>
+        <v>0.3576</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3598</v>
+        <v>0.3576</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3597</v>
+        <v>0.3576</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3597</v>
+        <v>0.3576</v>
       </c>
       <c r="K17" t="n">
-        <v>0.3597</v>
+        <v>0.3576</v>
       </c>
       <c r="L17" t="n">
-        <v>0.3596</v>
+        <v>0.3576</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3597</v>
+        <v>0.3575</v>
       </c>
       <c r="N17" t="n">
-        <v>0.3597</v>
+        <v>0.3575</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3597</v>
+        <v>0.3574</v>
       </c>
       <c r="P17" t="n">
-        <v>0.3597</v>
+        <v>0.3575</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.3597</v>
+        <v>0.3576</v>
       </c>
       <c r="R17" t="n">
-        <v>0.3597</v>
+        <v>0.3576</v>
       </c>
       <c r="S17" t="n">
-        <v>0.3597</v>
+        <v>0.3575</v>
       </c>
       <c r="T17" t="n">
-        <v>0.3595</v>
+        <v>0.3576</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3593</v>
+        <v>0.3575</v>
       </c>
       <c r="V17" t="n">
-        <v>0.3596</v>
+        <v>0.3575</v>
       </c>
       <c r="W17" t="n">
-        <v>0.3597</v>
+        <v>0.3576</v>
       </c>
       <c r="X17" t="n">
-        <v>0.3586</v>
+        <v>0.3576</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.3597</v>
+        <v>0.3576</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.3597</v>
+        <v>0.3576</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.3597</v>
+        <v>0.3576</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.3597</v>
+        <v>0.3575</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3597</v>
+        <v>0.3576</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.3597</v>
+        <v>0.3575</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.3597</v>
+        <v>0.3576</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.3468</v>
+        <v>0.3162</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.3768</v>
+        <v>0.3462</v>
       </c>
     </row>
     <row r="18">
@@ -2250,100 +2250,100 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3473</v>
+        <v>0.3402</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3476</v>
+        <v>0.3401</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3474</v>
+        <v>0.3401</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3474</v>
+        <v>0.34</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3474</v>
+        <v>0.3401</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3473</v>
+        <v>0.34</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3474</v>
+        <v>0.3401</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3475</v>
+        <v>0.34</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3473</v>
+        <v>0.3401</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3473</v>
+        <v>0.34</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3472</v>
+        <v>0.34</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3473</v>
+        <v>0.3399</v>
       </c>
       <c r="N18" t="n">
-        <v>0.3473</v>
+        <v>0.34</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3473</v>
+        <v>0.34</v>
       </c>
       <c r="P18" t="n">
-        <v>0.3473</v>
+        <v>0.34</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.3473</v>
+        <v>0.34</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3472</v>
+        <v>0.34</v>
       </c>
       <c r="S18" t="n">
-        <v>0.3472</v>
+        <v>0.34</v>
       </c>
       <c r="T18" t="n">
-        <v>0.3472</v>
+        <v>0.34</v>
       </c>
       <c r="U18" t="n">
-        <v>0.3469</v>
+        <v>0.34</v>
       </c>
       <c r="V18" t="n">
-        <v>0.3471</v>
+        <v>0.34</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3473</v>
+        <v>0.3399</v>
       </c>
       <c r="X18" t="n">
-        <v>0.3469</v>
+        <v>0.34</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.3472</v>
+        <v>0.34</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.3473</v>
+        <v>0.34</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.3472</v>
+        <v>0.34</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.3472</v>
+        <v>0.3399</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3472</v>
+        <v>0.3399</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.3473</v>
+        <v>0.3399</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.3473</v>
+        <v>0.3399</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.323</v>
+        <v>0.3199</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.348</v>
+        <v>0.3449</v>
       </c>
     </row>
     <row r="19">
@@ -2353,100 +2353,100 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3715</v>
+        <v>0.3667</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3717</v>
+        <v>0.3667</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3717</v>
+        <v>0.3666</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3716</v>
+        <v>0.3666</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3716</v>
+        <v>0.3666</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3715</v>
+        <v>0.3665</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3716</v>
+        <v>0.3666</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3717</v>
+        <v>0.3665</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3716</v>
+        <v>0.3666</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3715</v>
+        <v>0.3665</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3715</v>
+        <v>0.3665</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3715</v>
+        <v>0.3665</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3716</v>
+        <v>0.3665</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3715</v>
+        <v>0.3665</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3715</v>
+        <v>0.3665</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3715</v>
+        <v>0.3665</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3715</v>
+        <v>0.3665</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3714</v>
+        <v>0.3665</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3714</v>
+        <v>0.3665</v>
       </c>
       <c r="U19" t="n">
-        <v>0.3712</v>
+        <v>0.3665</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3714</v>
+        <v>0.3665</v>
       </c>
       <c r="W19" t="n">
-        <v>0.3715</v>
+        <v>0.3665</v>
       </c>
       <c r="X19" t="n">
-        <v>0.371</v>
+        <v>0.3666</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.3715</v>
+        <v>0.3666</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.3715</v>
+        <v>0.3665</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.3715</v>
+        <v>0.3664</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.3715</v>
+        <v>0.3664</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.3715</v>
+        <v>0.3664</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.3715</v>
+        <v>0.3664</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.3716</v>
+        <v>0.3664</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.3468</v>
+        <v>0.3243</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.3768</v>
+        <v>0.3543</v>
       </c>
     </row>
     <row r="20">
@@ -2456,100 +2456,100 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3301</v>
+        <v>0.3332</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3302</v>
+        <v>0.3334</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3302</v>
+        <v>0.3333</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3301</v>
+        <v>0.3333</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3301</v>
+        <v>0.3333</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3301</v>
+        <v>0.3333</v>
       </c>
       <c r="H20" t="n">
-        <v>0.33</v>
+        <v>0.3334</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3301</v>
+        <v>0.3334</v>
       </c>
       <c r="J20" t="n">
-        <v>0.33</v>
+        <v>0.3331</v>
       </c>
       <c r="K20" t="n">
-        <v>0.3301</v>
+        <v>0.333</v>
       </c>
       <c r="L20" t="n">
-        <v>0.33</v>
+        <v>0.3331</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3299</v>
+        <v>0.3329</v>
       </c>
       <c r="N20" t="n">
-        <v>0.33</v>
+        <v>0.3328</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3299</v>
+        <v>0.3328</v>
       </c>
       <c r="P20" t="n">
-        <v>0.3301</v>
+        <v>0.3331</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.33</v>
+        <v>0.3333</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3301</v>
+        <v>0.3331</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3301</v>
+        <v>0.3333</v>
       </c>
       <c r="T20" t="n">
-        <v>0.3301</v>
+        <v>0.3333</v>
       </c>
       <c r="U20" t="n">
-        <v>0.33</v>
+        <v>0.3333</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3301</v>
+        <v>0.3333</v>
       </c>
       <c r="W20" t="n">
-        <v>0.3301</v>
+        <v>0.3331</v>
       </c>
       <c r="X20" t="n">
-        <v>0.33</v>
+        <v>0.3331</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.3299</v>
+        <v>0.3333</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.3301</v>
+        <v>0.3333</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.33</v>
+        <v>0.3334</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.33</v>
+        <v>0.3334</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.33</v>
+        <v>0.3331</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.3301</v>
+        <v>0.3332</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.3301</v>
+        <v>0.3334</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.323</v>
+        <v>0.318</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.348</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="21">
@@ -2559,100 +2559,100 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3575</v>
+        <v>0.3553</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3576</v>
+        <v>0.3554</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3576</v>
+        <v>0.3554</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3576</v>
+        <v>0.3554</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3575</v>
+        <v>0.3554</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3576</v>
+        <v>0.3554</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3574</v>
+        <v>0.3554</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3575</v>
+        <v>0.3554</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3575</v>
+        <v>0.3552</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3575</v>
+        <v>0.3552</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3574</v>
+        <v>0.3552</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3574</v>
+        <v>0.3552</v>
       </c>
       <c r="N21" t="n">
-        <v>0.3575</v>
+        <v>0.3551</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3574</v>
+        <v>0.3551</v>
       </c>
       <c r="P21" t="n">
-        <v>0.3575</v>
+        <v>0.3552</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3574</v>
+        <v>0.3554</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3575</v>
+        <v>0.3553</v>
       </c>
       <c r="S21" t="n">
-        <v>0.3575</v>
+        <v>0.3553</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3575</v>
+        <v>0.3554</v>
       </c>
       <c r="U21" t="n">
-        <v>0.3575</v>
+        <v>0.3553</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3575</v>
+        <v>0.3554</v>
       </c>
       <c r="W21" t="n">
-        <v>0.3575</v>
+        <v>0.3552</v>
       </c>
       <c r="X21" t="n">
-        <v>0.3574</v>
+        <v>0.3553</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.3574</v>
+        <v>0.3554</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.3575</v>
+        <v>0.3554</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.3574</v>
+        <v>0.3554</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.3574</v>
+        <v>0.3554</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.3574</v>
+        <v>0.3553</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.3575</v>
+        <v>0.3553</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.3575</v>
+        <v>0.3554</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.3468</v>
+        <v>0.3178</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.3768</v>
+        <v>0.3478</v>
       </c>
     </row>
     <row r="22">
@@ -2662,100 +2662,100 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3328</v>
+        <v>0.333</v>
       </c>
       <c r="C22" t="n">
         <v>0.333</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3331</v>
+        <v>0.3328</v>
       </c>
       <c r="E22" t="n">
-        <v>0.333</v>
+        <v>0.3324</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3332</v>
+        <v>0.3325</v>
       </c>
       <c r="G22" t="n">
-        <v>0.333</v>
+        <v>0.3324</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3331</v>
+        <v>0.3324</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3331</v>
+        <v>0.3324</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3331</v>
+        <v>0.3324</v>
       </c>
       <c r="K22" t="n">
-        <v>0.333</v>
+        <v>0.3326</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3331</v>
+        <v>0.3324</v>
       </c>
       <c r="M22" t="n">
-        <v>0.333</v>
+        <v>0.3325</v>
       </c>
       <c r="N22" t="n">
-        <v>0.333</v>
+        <v>0.3328</v>
       </c>
       <c r="O22" t="n">
-        <v>0.333</v>
+        <v>0.3328</v>
       </c>
       <c r="P22" t="n">
+        <v>0.3326</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.3325</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.3324</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.3325</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.3325</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.3322</v>
+      </c>
+      <c r="Y22" t="n">
         <v>0.3329</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Z22" t="n">
         <v>0.3329</v>
       </c>
-      <c r="R22" t="n">
-        <v>0.3331</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0.3332</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0.3329</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0.3329</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.3329</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.3329</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.3331</v>
-      </c>
       <c r="AA22" t="n">
-        <v>0.333</v>
+        <v>0.3328</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.3331</v>
+        <v>0.3327</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.3332</v>
+        <v>0.3325</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.333</v>
+        <v>0.3328</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.333</v>
+        <v>0.3325</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.323</v>
+        <v>0.3267</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.348</v>
+        <v>0.3517</v>
       </c>
     </row>
     <row r="23">
@@ -2765,100 +2765,100 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3598</v>
+        <v>0.3592</v>
       </c>
       <c r="C23" t="n">
-        <v>0.36</v>
+        <v>0.3591</v>
       </c>
       <c r="D23" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3599</v>
+        <v>0.3587</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3601</v>
+        <v>0.3588</v>
       </c>
       <c r="G23" t="n">
-        <v>0.36</v>
+        <v>0.3587</v>
       </c>
       <c r="H23" t="n">
-        <v>0.36</v>
+        <v>0.3587</v>
       </c>
       <c r="I23" t="n">
-        <v>0.36</v>
+        <v>0.3587</v>
       </c>
       <c r="J23" t="n">
-        <v>0.36</v>
+        <v>0.3587</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3599</v>
+        <v>0.3589</v>
       </c>
       <c r="L23" t="n">
-        <v>0.36</v>
+        <v>0.3587</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3599</v>
+        <v>0.3589</v>
       </c>
       <c r="N23" t="n">
-        <v>0.3599</v>
+        <v>0.359</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3599</v>
+        <v>0.3591</v>
       </c>
       <c r="P23" t="n">
-        <v>0.3599</v>
+        <v>0.3589</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.3598</v>
+        <v>0.3587</v>
       </c>
       <c r="R23" t="n">
-        <v>0.36</v>
+        <v>0.3587</v>
       </c>
       <c r="S23" t="n">
-        <v>0.36</v>
+        <v>0.3587</v>
       </c>
       <c r="T23" t="n">
-        <v>0.3599</v>
+        <v>0.3587</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3599</v>
+        <v>0.3587</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3599</v>
+        <v>0.3588</v>
       </c>
       <c r="W23" t="n">
-        <v>0.3599</v>
+        <v>0.3588</v>
       </c>
       <c r="X23" t="n">
-        <v>0.3599</v>
+        <v>0.3587</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.3599</v>
+        <v>0.359</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.36</v>
+        <v>0.3592</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.3599</v>
+        <v>0.359</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.36</v>
+        <v>0.3589</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.36</v>
+        <v>0.3587</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.36</v>
+        <v>0.3589</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.3599</v>
+        <v>0.3587</v>
       </c>
       <c r="AF23" t="n">
-        <v>0.3468</v>
+        <v>0.3162</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.3768</v>
+        <v>0.3462</v>
       </c>
     </row>
     <row r="24">
@@ -2868,100 +2868,100 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3533</v>
+        <v>0.3445</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3532</v>
+        <v>0.3445</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3533</v>
+        <v>0.3444</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3531</v>
+        <v>0.3444</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3531</v>
+        <v>0.3444</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3531</v>
+        <v>0.3443</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3531</v>
+        <v>0.3443</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3531</v>
+        <v>0.3444</v>
       </c>
       <c r="J24" t="n">
-        <v>0.353</v>
+        <v>0.3443</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3531</v>
+        <v>0.3443</v>
       </c>
       <c r="L24" t="n">
-        <v>0.353</v>
+        <v>0.3443</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3531</v>
+        <v>0.3443</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3529</v>
+        <v>0.3443</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3531</v>
+        <v>0.3443</v>
       </c>
       <c r="P24" t="n">
-        <v>0.353</v>
+        <v>0.3443</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.3528</v>
+        <v>0.3443</v>
       </c>
       <c r="R24" t="n">
-        <v>0.353</v>
+        <v>0.3443</v>
       </c>
       <c r="S24" t="n">
-        <v>0.3529</v>
+        <v>0.3443</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3529</v>
+        <v>0.3443</v>
       </c>
       <c r="U24" t="n">
-        <v>0.353</v>
+        <v>0.3443</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3529</v>
+        <v>0.3442</v>
       </c>
       <c r="W24" t="n">
-        <v>0.3529</v>
+        <v>0.3442</v>
       </c>
       <c r="X24" t="n">
-        <v>0.353</v>
+        <v>0.3442</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3529</v>
+        <v>0.3442</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.3529</v>
+        <v>0.3442</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.3529</v>
+        <v>0.3443</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.3529</v>
+        <v>0.3442</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.353</v>
+        <v>0.3442</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.353</v>
+        <v>0.3442</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.353</v>
+        <v>0.3442</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.323</v>
+        <v>0.3199</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.348</v>
+        <v>0.3449</v>
       </c>
     </row>
     <row r="25">
@@ -2971,100 +2971,100 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3744</v>
+        <v>0.3687</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3744</v>
+        <v>0.3686</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3744</v>
+        <v>0.3686</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3743</v>
+        <v>0.3686</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3743</v>
+        <v>0.3686</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3743</v>
+        <v>0.3685</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3742</v>
+        <v>0.3685</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3743</v>
+        <v>0.3685</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3742</v>
+        <v>0.3685</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3742</v>
+        <v>0.3685</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3742</v>
+        <v>0.3685</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3742</v>
+        <v>0.3685</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3742</v>
+        <v>0.3685</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3742</v>
+        <v>0.3685</v>
       </c>
       <c r="P25" t="n">
-        <v>0.3742</v>
+        <v>0.3685</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.3741</v>
+        <v>0.3685</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3742</v>
+        <v>0.3684</v>
       </c>
       <c r="S25" t="n">
-        <v>0.3741</v>
+        <v>0.3684</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3741</v>
+        <v>0.3684</v>
       </c>
       <c r="U25" t="n">
-        <v>0.3742</v>
+        <v>0.3684</v>
       </c>
       <c r="V25" t="n">
-        <v>0.3741</v>
+        <v>0.3684</v>
       </c>
       <c r="W25" t="n">
-        <v>0.3741</v>
+        <v>0.3684</v>
       </c>
       <c r="X25" t="n">
-        <v>0.3742</v>
+        <v>0.3684</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.3741</v>
+        <v>0.3684</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.3742</v>
+        <v>0.3684</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.3742</v>
+        <v>0.3684</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.3741</v>
+        <v>0.3684</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.3742</v>
+        <v>0.3684</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.3742</v>
+        <v>0.3684</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.3742</v>
+        <v>0.3683</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.3468</v>
+        <v>0.3243</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.3768</v>
+        <v>0.3543</v>
       </c>
     </row>
   </sheetData>

--- a/a2_RyR_Analyser/a2_output/Target_with_limits.xlsx
+++ b/a2_RyR_Analyser/a2_output/Target_with_limits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AZ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,160 +436,255 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>test: 1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>test: 2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>test: 3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>test: 4</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>test: 5</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>test: 6</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>test: 7</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>test: 8</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>test: 9</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>test: 10</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>test: 11</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>test: 12</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>test: 13</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>test: 14</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>test: 15</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>test: 16</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>test: 17</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>test: 18</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>test: 19</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>test: 20</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>test: 21</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>test: 22</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>test: 23</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>test: 24</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>test: 25</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>test: 26</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>test: 27</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>test: 28</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>test: 29</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>test: 30</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
+          <t>test: 31</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>test: 32</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>test: 33</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>test: 34</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>test: 35</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>test: 36</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>test: 37</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>test: 38</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>test: 39</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>test: 40</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>test: 41</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>test: 42</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>test: 43</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>test: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>test: 45</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>test: 46</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>test: 47</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>test: 48</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>test: 49</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
           <t>LO_LIMIT</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>HI_LIMIT</t>
         </is>
@@ -602,100 +697,157 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3288</v>
+        <v>0.3248</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3289</v>
+        <v>0.3261</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3289</v>
+        <v>0.3248</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3289</v>
+        <v>0.3252</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3289</v>
+        <v>0.3253</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3289</v>
+        <v>0.3249</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3289</v>
+        <v>0.3257</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3289</v>
+        <v>0.3256</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3289</v>
+        <v>0.3256</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3283</v>
+        <v>0.3244</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3286</v>
+        <v>0.3257</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3281</v>
+        <v>0.3244</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3274</v>
+        <v>0.3244</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3278</v>
+        <v>0.3253</v>
       </c>
       <c r="P2" t="n">
-        <v>0.328</v>
+        <v>0.3257</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3286</v>
+        <v>0.3258</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3289</v>
+        <v>0.3249</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3289</v>
+        <v>0.3248</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3289</v>
+        <v>0.3251</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3289</v>
+        <v>0.3238</v>
       </c>
       <c r="V2" t="n">
-        <v>0.3289</v>
+        <v>0.3256</v>
       </c>
       <c r="W2" t="n">
-        <v>0.3289</v>
+        <v>0.3243</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3283</v>
+        <v>0.3248</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3289</v>
+        <v>0.324</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.3289</v>
+        <v>0.3246</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3278</v>
+        <v>0.3247</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.328</v>
+        <v>0.3245</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.3262</v>
+        <v>0.3253</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3284</v>
+        <v>0.3246</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.3283</v>
+        <v>0.3251</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.318</v>
+        <v>0.3237</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.343</v>
+        <v>0.324</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.3244</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.3248</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.3237</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.3247</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.3253</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.3243</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.3244</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.3246</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.3258</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.3241</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.3246</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.3253</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.3231</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.3244</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.3241</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.3249</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.3139</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.3389</v>
       </c>
     </row>
     <row r="3">
@@ -705,100 +857,157 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3503</v>
+        <v>0.348</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3503</v>
+        <v>0.3489</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3503</v>
+        <v>0.348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3503</v>
+        <v>0.3491</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3503</v>
+        <v>0.3482</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3503</v>
+        <v>0.3485</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3503</v>
+        <v>0.3485</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3503</v>
+        <v>0.3497</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3503</v>
+        <v>0.3486</v>
       </c>
       <c r="K3" t="n">
-        <v>0.35</v>
+        <v>0.3476</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3501</v>
+        <v>0.3483</v>
       </c>
       <c r="M3" t="n">
-        <v>0.35</v>
+        <v>0.3475</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3496</v>
+        <v>0.3475</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3498</v>
+        <v>0.3491</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3498</v>
+        <v>0.3492</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3501</v>
+        <v>0.3497</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3503</v>
+        <v>0.3483</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3503</v>
+        <v>0.3493</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3503</v>
+        <v>0.3491</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3503</v>
+        <v>0.3476</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3503</v>
+        <v>0.3497</v>
       </c>
       <c r="W3" t="n">
-        <v>0.3503</v>
+        <v>0.3477</v>
       </c>
       <c r="X3" t="n">
-        <v>0.35</v>
+        <v>0.3479</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.3503</v>
+        <v>0.347</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.3503</v>
+        <v>0.3477</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.3499</v>
+        <v>0.3492</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.3499</v>
+        <v>0.3489</v>
       </c>
       <c r="AC3" t="n">
         <v>0.3493</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.3502</v>
+        <v>0.3488</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.35</v>
+        <v>0.3491</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.3178</v>
+        <v>0.3475</v>
       </c>
       <c r="AG3" t="n">
+        <v>0.3489</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.3492</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.3479</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="AK3" t="n">
         <v>0.3478</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.3479</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.3495</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.3479</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.3475</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.3492</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.3481</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.3492</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.3462</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.3479</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.3487</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.3483</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.3161</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.3461</v>
       </c>
     </row>
     <row r="4">
@@ -808,99 +1017,156 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3345</v>
+        <v>0.334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3345</v>
+        <v>0.3332</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3344</v>
+        <v>0.3313</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3339</v>
+        <v>0.3316</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3344</v>
+        <v>0.3329</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3344</v>
+        <v>0.3312</v>
       </c>
       <c r="H4" t="n">
-        <v>0.334</v>
+        <v>0.3326</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3342</v>
+        <v>0.3314</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3341</v>
+        <v>0.333</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3341</v>
+        <v>0.3329</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3341</v>
+        <v>0.3325</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3339</v>
+        <v>0.333</v>
       </c>
       <c r="N4" t="n">
-        <v>0.3338</v>
+        <v>0.331</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3339</v>
+        <v>0.3313</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3342</v>
+        <v>0.3349</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3343</v>
+        <v>0.3315</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3341</v>
+        <v>0.333</v>
       </c>
       <c r="S4" t="n">
-        <v>0.334</v>
+        <v>0.3313</v>
       </c>
       <c r="T4" t="n">
-        <v>0.3341</v>
+        <v>0.3311</v>
       </c>
       <c r="U4" t="n">
-        <v>0.3341</v>
+        <v>0.3309</v>
       </c>
       <c r="V4" t="n">
-        <v>0.3341</v>
+        <v>0.3319</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3342</v>
+        <v>0.3328</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3342</v>
+        <v>0.3327</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3342</v>
+        <v>0.3305</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.334</v>
+        <v>0.3327</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.3332</v>
+        <v>0.3309</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.3338</v>
+        <v>0.3312</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.3331</v>
+        <v>0.3308</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.3336</v>
+        <v>0.331</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.3335</v>
+        <v>0.3306</v>
       </c>
       <c r="AF4" t="n">
+        <v>0.3326</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.3326</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.3308</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.3329</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.3327</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.3325</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.3325</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.3309</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.3319</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.3305</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.3305</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.3325</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0.3305</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0.3325</v>
+      </c>
+      <c r="AY4" t="n">
         <v>0.3267</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AZ4" t="n">
         <v>0.3517</v>
       </c>
     </row>
@@ -911,100 +1177,157 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3577</v>
+        <v>0.359</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3577</v>
+        <v>0.3586</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3575</v>
+        <v>0.3568</v>
       </c>
       <c r="E5" t="n">
         <v>0.3573</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3575</v>
+        <v>0.3584</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3576</v>
+        <v>0.357</v>
       </c>
       <c r="H5" t="n">
+        <v>0.3582</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.3573</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.3574</v>
-      </c>
       <c r="J5" t="n">
-        <v>0.3573</v>
+        <v>0.3586</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3573</v>
+        <v>0.3585</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3573</v>
+        <v>0.3582</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3573</v>
+        <v>0.3584</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3572</v>
+        <v>0.3565</v>
       </c>
       <c r="O5" t="n">
         <v>0.3572</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3573</v>
+        <v>0.3565</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3575</v>
+        <v>0.3574</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3573</v>
+        <v>0.3586</v>
       </c>
       <c r="S5" t="n">
         <v>0.3573</v>
       </c>
       <c r="T5" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.3567</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.3562</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="AB5" t="n">
         <v>0.3573</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AC5" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.3569</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.3575</v>
+      </c>
+      <c r="AH5" t="n">
         <v>0.3573</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AI5" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.3571</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.3587</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.3574</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.3572</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>0.3573</v>
       </c>
-      <c r="W5" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.3577</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.3577</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.3162</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.3462</v>
+      <c r="AR5" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.3571</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.3568</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.3565</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0.3569</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.3119</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.3419</v>
       </c>
     </row>
     <row r="6">
@@ -1014,100 +1337,157 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3392</v>
+        <v>0.3347</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3391</v>
+        <v>0.3385</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3388</v>
+        <v>0.3375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3388</v>
+        <v>0.3383</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3388</v>
+        <v>0.3384</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3388</v>
+        <v>0.3383</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3388</v>
+        <v>0.3385</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3389</v>
+        <v>0.3384</v>
       </c>
       <c r="J6" t="n">
         <v>0.3388</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3388</v>
+        <v>0.3387</v>
       </c>
       <c r="L6" t="n">
-        <v>0.3388</v>
+        <v>0.3381</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3388</v>
+        <v>0.338</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3389</v>
+        <v>0.3379</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3389</v>
+        <v>0.3384</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3389</v>
+        <v>0.3387</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.339</v>
+        <v>0.3384</v>
       </c>
       <c r="R6" t="n">
-        <v>0.339</v>
+        <v>0.3386</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3389</v>
+        <v>0.3384</v>
       </c>
       <c r="T6" t="n">
-        <v>0.339</v>
+        <v>0.3385</v>
       </c>
       <c r="U6" t="n">
-        <v>0.3389</v>
+        <v>0.3381</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3388</v>
+        <v>0.3382</v>
       </c>
       <c r="W6" t="n">
         <v>0.3386</v>
       </c>
       <c r="X6" t="n">
-        <v>0.3389</v>
+        <v>0.3383</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3389</v>
+        <v>0.3378</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3385</v>
+        <v>0.3384</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3386</v>
+        <v>0.3384</v>
       </c>
       <c r="AB6" t="n">
         <v>0.3384</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.3386</v>
+        <v>0.3383</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.3384</v>
+        <v>0.3383</v>
       </c>
       <c r="AE6" t="n">
         <v>0.3386</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.3199</v>
+        <v>0.3384</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.3449</v>
+        <v>0.3386</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.3386</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.3386</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.3383</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.3385</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.3383</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.3383</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.3382</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.3383</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.3382</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.3381</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.3383</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.3384</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.3393</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.3384</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0.3384</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.3183</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0.3433</v>
       </c>
     </row>
     <row r="7">
@@ -1117,100 +1497,157 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3659</v>
+        <v>0.3556</v>
       </c>
       <c r="C7" t="n">
         <v>0.3659</v>
       </c>
       <c r="D7" t="n">
+        <v>0.3651</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.3657</v>
       </c>
-      <c r="E7" t="n">
+      <c r="H7" t="n">
+        <v>0.3659</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.3659</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3661</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3661</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.3657</v>
       </c>
-      <c r="F7" t="n">
+      <c r="M7" t="n">
+        <v>0.3655</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.3653</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.3661</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.3659</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.3659</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.3659</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.3654</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.3652</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.3659</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.3659</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.3659</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>0.3657</v>
       </c>
-      <c r="G7" t="n">
+      <c r="AK7" t="n">
+        <v>0.3659</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.3657</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>0.3656</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.3656</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="AR7" t="n">
         <v>0.3657</v>
       </c>
-      <c r="J7" t="n">
-        <v>0.3656</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.3656</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.3656</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.3657</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.3657</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.3657</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.3657</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.3657</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.3657</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.3657</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.3657</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.3657</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.3656</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="AS7" t="n">
         <v>0.3655</v>
       </c>
-      <c r="X7" t="n">
-        <v>0.3657</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.3657</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.3656</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.3656</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.3654</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.3656</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.3655</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0.3655</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.3243</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>0.3543</v>
+      <c r="AT7" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0.3663</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0.3658</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0.3663</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0.3545</v>
       </c>
     </row>
     <row r="8">
@@ -1220,100 +1657,157 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3275</v>
+        <v>0.3247</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3275</v>
+        <v>0.3247</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3273</v>
+        <v>0.325</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3274</v>
+        <v>0.3251</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3273</v>
+        <v>0.3244</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3274</v>
+        <v>0.3252</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3274</v>
+        <v>0.3247</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3274</v>
+        <v>0.3243</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3273</v>
+        <v>0.3246</v>
       </c>
       <c r="K8" t="n">
-        <v>0.3272</v>
+        <v>0.3239</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3272</v>
+        <v>0.3232</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3267</v>
+        <v>0.3248</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3271</v>
+        <v>0.3248</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3268</v>
+        <v>0.3247</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3272</v>
+        <v>0.3243</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3272</v>
+        <v>0.3243</v>
       </c>
       <c r="R8" t="n">
-        <v>0.3274</v>
+        <v>0.3243</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3274</v>
+        <v>0.3243</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3274</v>
+        <v>0.3244</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3274</v>
+        <v>0.3243</v>
       </c>
       <c r="V8" t="n">
-        <v>0.3274</v>
+        <v>0.3239</v>
       </c>
       <c r="W8" t="n">
-        <v>0.3272</v>
+        <v>0.3242</v>
       </c>
       <c r="X8" t="n">
-        <v>0.3273</v>
+        <v>0.324</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.3276</v>
+        <v>0.3244</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.3272</v>
+        <v>0.3243</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.3254</v>
+        <v>0.3238</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.327</v>
+        <v>0.3239</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.3249</v>
+        <v>0.3238</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.3265</v>
+        <v>0.3236</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.3272</v>
+        <v>0.3237</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.318</v>
+        <v>0.3234</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.343</v>
+        <v>0.3234</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0.3238</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0.3236</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0.323</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0.3237</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0.3231</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0.3234</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.3233</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.3237</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0.3234</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0.3236</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0.3235</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0.3237</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0.3238</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0.3238</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0.3233</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0.3233</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.3139</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0.3389</v>
       </c>
     </row>
     <row r="9">
@@ -1323,100 +1817,157 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3472</v>
+        <v>0.3463</v>
       </c>
       <c r="C9" t="n">
         <v>0.3472</v>
       </c>
       <c r="D9" t="n">
+        <v>0.3467</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.3471</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.3471</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.347</v>
-      </c>
       <c r="G9" t="n">
-        <v>0.3471</v>
+        <v>0.3469</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3471</v>
+        <v>0.3474</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3471</v>
+        <v>0.3472</v>
       </c>
       <c r="J9" t="n">
-        <v>0.3471</v>
+        <v>0.3464</v>
       </c>
       <c r="K9" t="n">
-        <v>0.347</v>
+        <v>0.3469</v>
       </c>
       <c r="L9" t="n">
-        <v>0.347</v>
+        <v>0.3448</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3467</v>
+        <v>0.3475</v>
       </c>
       <c r="N9" t="n">
-        <v>0.347</v>
+        <v>0.3465</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3468</v>
+        <v>0.3464</v>
       </c>
       <c r="P9" t="n">
-        <v>0.347</v>
+        <v>0.3464</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="R9" t="n">
         <v>0.3471</v>
       </c>
       <c r="S9" t="n">
+        <v>0.3463</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.3463</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.3472</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.3461</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.3472</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.3461</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.3457</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.3458</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.3459</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.3458</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.3469</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.3472</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.3461</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.3465</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.3456</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.3462</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.3458</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.3462</v>
+      </c>
+      <c r="AT9" t="n">
         <v>0.3471</v>
       </c>
-      <c r="T9" t="n">
-        <v>0.3471</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.3471</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.3471</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.3471</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.3472</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.3465</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="AC9" t="n">
+      <c r="AU9" t="n">
         <v>0.3463</v>
       </c>
-      <c r="AD9" t="n">
-        <v>0.3467</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0.347</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0.3178</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0.3478</v>
+      <c r="AV9" t="n">
+        <v>0.3464</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0.3468</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.3161</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0.3461</v>
       </c>
     </row>
     <row r="10">
@@ -1426,99 +1977,156 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3349</v>
+        <v>0.3344</v>
       </c>
       <c r="C10" t="n">
-        <v>0.335</v>
+        <v>0.3318</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3342</v>
+        <v>0.3335</v>
       </c>
       <c r="E10" t="n">
-        <v>0.334</v>
+        <v>0.3336</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3341</v>
+        <v>0.3312</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3342</v>
+        <v>0.3334</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3341</v>
+        <v>0.3312</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3344</v>
+        <v>0.3315</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3341</v>
+        <v>0.3335</v>
       </c>
       <c r="K10" t="n">
-        <v>0.3341</v>
+        <v>0.331</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3341</v>
+        <v>0.3311</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3343</v>
+        <v>0.3315</v>
       </c>
       <c r="N10" t="n">
-        <v>0.3342</v>
+        <v>0.3332</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3346</v>
+        <v>0.3334</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3341</v>
+        <v>0.3338</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3341</v>
+        <v>0.3333</v>
       </c>
       <c r="R10" t="n">
-        <v>0.3341</v>
+        <v>0.3309</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3343</v>
+        <v>0.3331</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3341</v>
+        <v>0.3335</v>
       </c>
       <c r="U10" t="n">
-        <v>0.3343</v>
+        <v>0.331</v>
       </c>
       <c r="V10" t="n">
-        <v>0.3341</v>
+        <v>0.3333</v>
       </c>
       <c r="W10" t="n">
-        <v>0.3345</v>
+        <v>0.3312</v>
       </c>
       <c r="X10" t="n">
-        <v>0.3346</v>
+        <v>0.3339</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.3342</v>
+        <v>0.333</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.3343</v>
+        <v>0.3313</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.3337</v>
+        <v>0.3329</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.3343</v>
+        <v>0.3333</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.3344</v>
+        <v>0.3325</v>
       </c>
       <c r="AD10" t="n">
+        <v>0.3327</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3331</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3309</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>0.3336</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AK10" t="n">
+        <v>0.3309</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3309</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3338</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.3305</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.3309</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.3327</v>
+      </c>
+      <c r="AV10" t="n">
         <v>0.3332</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AW10" t="n">
+        <v>0.3306</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0.3309</v>
+      </c>
+      <c r="AY10" t="n">
         <v>0.3267</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AZ10" t="n">
         <v>0.3517</v>
       </c>
     </row>
@@ -1529,100 +2137,157 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3588</v>
+        <v>0.3601</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3588</v>
+        <v>0.3585</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3584</v>
+        <v>0.3599</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3581</v>
+        <v>0.3599</v>
       </c>
       <c r="F11" t="n">
         <v>0.3582</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3583</v>
+        <v>0.3599</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3581</v>
+        <v>0.3582</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3583</v>
+        <v>0.3585</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3581</v>
+        <v>0.3599</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3581</v>
+        <v>0.3582</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3581</v>
+        <v>0.3576</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3584</v>
+        <v>0.3585</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3581</v>
+        <v>0.3598</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3584</v>
+        <v>0.3598</v>
       </c>
       <c r="P11" t="n">
-        <v>0.3581</v>
+        <v>0.3602</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.3581</v>
+        <v>0.3598</v>
       </c>
       <c r="R11" t="n">
         <v>0.3581</v>
       </c>
       <c r="S11" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.3582</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="W11" t="n">
         <v>0.3583</v>
       </c>
-      <c r="T11" t="n">
+      <c r="X11" t="n">
+        <v>0.3601</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.3593</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.3595</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.3596</v>
+      </c>
+      <c r="AF11" t="n">
         <v>0.3581</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AG11" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="AH11" t="n">
         <v>0.3583</v>
       </c>
-      <c r="V11" t="n">
-        <v>0.3581</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.3584</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.3586</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.3584</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.3586</v>
-      </c>
-      <c r="AA11" t="n">
+      <c r="AI11" t="n">
         <v>0.3583</v>
       </c>
-      <c r="AB11" t="n">
-        <v>0.3587</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0.3585</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0.3584</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0.358</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0.3162</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0.3462</v>
+      <c r="AJ11" t="n">
+        <v>0.3601</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.3582</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.3582</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.3601</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.3598</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.3597</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.3595</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0.3599</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0.3582</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0.3582</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.3119</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.3419</v>
       </c>
     </row>
     <row r="12">
@@ -1632,100 +2297,157 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0.3347</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3339</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.3332</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.3335</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.3329</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.3335</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.3331</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.3329</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0.3341</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0.3335</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="X12" t="n">
         <v>0.3336</v>
       </c>
-      <c r="C12" t="n">
+      <c r="Y12" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.3332</v>
+      </c>
+      <c r="AC12" t="n">
         <v>0.3335</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.3335</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.3335</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="AD12" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AF12" t="n">
         <v>0.3337</v>
       </c>
-      <c r="G12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.3337</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0.3341</v>
-      </c>
-      <c r="AC12" t="n">
+      <c r="AG12" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="AI12" t="n">
         <v>0.3336</v>
       </c>
-      <c r="AD12" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0.3338</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.3199</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0.3449</v>
+      <c r="AJ12" t="n">
+        <v>0.3336</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.3331</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0.3331</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.3328</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.3331</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0.3327</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0.3329</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0.3331</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0.3334</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0.3336</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0.3331</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0.3333</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.3183</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0.3433</v>
       </c>
     </row>
     <row r="13">
@@ -1735,46 +2457,46 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0.3634</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3629</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.3627</v>
       </c>
-      <c r="C13" t="n">
-        <v>0.3626</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.3626</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.3625</v>
-      </c>
       <c r="F13" t="n">
-        <v>0.3626</v>
+        <v>0.3633</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3626</v>
+        <v>0.3629</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3626</v>
+        <v>0.363</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3626</v>
+        <v>0.363</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3626</v>
+        <v>0.3629</v>
       </c>
       <c r="K13" t="n">
-        <v>0.3626</v>
+        <v>0.3627</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3626</v>
+        <v>0.3623</v>
       </c>
       <c r="M13" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.3627</v>
       </c>
-      <c r="N13" t="n">
-        <v>0.3626</v>
-      </c>
       <c r="O13" t="n">
-        <v>0.3626</v>
+        <v>0.3629</v>
       </c>
       <c r="P13" t="n">
         <v>0.3626</v>
@@ -1783,52 +2505,109 @@
         <v>0.3626</v>
       </c>
       <c r="R13" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.3629</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0.3635</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.3629</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.3629</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.3631</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.3629</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.3631</v>
+      </c>
+      <c r="AA13" t="n">
         <v>0.3626</v>
       </c>
-      <c r="S13" t="n">
-        <v>0.3626</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0.3626</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0.3626</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0.3626</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.3627</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.3627</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.3627</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.363</v>
-      </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>0.3629</v>
       </c>
-      <c r="AB13" t="n">
-        <v>0.363</v>
-      </c>
       <c r="AC13" t="n">
-        <v>0.3626</v>
+        <v>0.3632</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.363</v>
+        <v>0.3628</v>
       </c>
       <c r="AE13" t="n">
         <v>0.3628</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.3243</v>
+        <v>0.3632</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.3543</v>
+        <v>0.3626</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.3633</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.3631</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.3629</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.3627</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.3627</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.3626</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.3628</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0.3626</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0.3626</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0.3628</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0.3629</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0.3631</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0.3629</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0.3628</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0.3545</v>
       </c>
     </row>
     <row r="14">
@@ -1838,100 +2617,157 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3332</v>
+        <v>0.3287</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3335</v>
+        <v>0.3273</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3334</v>
+        <v>0.3288</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3336</v>
+        <v>0.3287</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3335</v>
+        <v>0.3274</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3336</v>
+        <v>0.3273</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3336</v>
+        <v>0.3286</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3336</v>
+        <v>0.327</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3332</v>
+        <v>0.3268</v>
       </c>
       <c r="K14" t="n">
-        <v>0.3333</v>
+        <v>0.3271</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3333</v>
+        <v>0.327</v>
       </c>
       <c r="M14" t="n">
-        <v>0.333</v>
+        <v>0.3284</v>
       </c>
       <c r="N14" t="n">
-        <v>0.3327</v>
+        <v>0.3284</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3329</v>
+        <v>0.3271</v>
       </c>
       <c r="P14" t="n">
-        <v>0.3334</v>
+        <v>0.3279</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.3335</v>
+        <v>0.327</v>
       </c>
       <c r="R14" t="n">
-        <v>0.3331</v>
+        <v>0.3281</v>
       </c>
       <c r="S14" t="n">
-        <v>0.3336</v>
+        <v>0.3278</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3336</v>
+        <v>0.3265</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3336</v>
+        <v>0.3267</v>
       </c>
       <c r="V14" t="n">
-        <v>0.3331</v>
+        <v>0.3271</v>
       </c>
       <c r="W14" t="n">
-        <v>0.3332</v>
+        <v>0.3275</v>
       </c>
       <c r="X14" t="n">
-        <v>0.3335</v>
+        <v>0.3275</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.3336</v>
+        <v>0.3265</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.3333</v>
+        <v>0.3276</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.3335</v>
+        <v>0.3278</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.3332</v>
+        <v>0.3262</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.3335</v>
+        <v>0.327</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.3326</v>
+        <v>0.3265</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.3321</v>
+        <v>0.3259</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.318</v>
+        <v>0.3261</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.343</v>
+        <v>0.3264</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.3275</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.3272</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.3258</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.3258</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.3257</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.3271</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.3272</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.3263</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.3261</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.3259</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.3272</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.3269</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0.3274</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0.3251</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.3139</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.3389</v>
       </c>
     </row>
     <row r="15">
@@ -1941,100 +2777,157 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.3502</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.3515</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.3518</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.3518</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.3518</v>
-      </c>
       <c r="G15" t="n">
-        <v>0.3518</v>
+        <v>0.3513</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3518</v>
+        <v>0.3509</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3518</v>
+        <v>0.3512</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3515</v>
+        <v>0.3512</v>
       </c>
       <c r="K15" t="n">
+        <v>0.3501</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.3513</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.3509</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.3508</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.3513</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.3514</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.3512</v>
+      </c>
+      <c r="V15" t="n">
         <v>0.3516</v>
       </c>
-      <c r="L15" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.3515</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="W15" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.3511</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.3502</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.3498</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.3508</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.3509</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.3504</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.3508</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.3509</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.3512</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.3506</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.3511</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>0.3513</v>
       </c>
-      <c r="O15" t="n">
-        <v>0.3514</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0.3518</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0.3515</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0.3518</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0.3518</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0.3518</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.3515</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.3515</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.3518</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.3518</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.3517</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.3518</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.3516</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.3518</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.3514</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AR15" t="n">
         <v>0.3512</v>
       </c>
-      <c r="AF15" t="n">
-        <v>0.3178</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0.3478</v>
+      <c r="AS15" t="n">
+        <v>0.3512</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0.3507</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0.3498</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.3161</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0.3461</v>
       </c>
     </row>
     <row r="16">
@@ -2044,99 +2937,156 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3306</v>
+        <v>0.33</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3306</v>
+        <v>0.329</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3304</v>
+        <v>0.3292</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3303</v>
+        <v>0.3291</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3303</v>
+        <v>0.3298</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3303</v>
+        <v>0.3294</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3303</v>
+        <v>0.3292</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3303</v>
+        <v>0.3294</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3304</v>
+        <v>0.3293</v>
       </c>
       <c r="K16" t="n">
-        <v>0.3304</v>
+        <v>0.3288</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3303</v>
+        <v>0.3293</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3301</v>
+        <v>0.3291</v>
       </c>
       <c r="N16" t="n">
-        <v>0.3301</v>
+        <v>0.3292</v>
       </c>
       <c r="O16" t="n">
-        <v>0.33</v>
+        <v>0.3294</v>
       </c>
       <c r="P16" t="n">
-        <v>0.3303</v>
+        <v>0.3291</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3302</v>
+        <v>0.3294</v>
       </c>
       <c r="R16" t="n">
-        <v>0.3304</v>
+        <v>0.3289</v>
       </c>
       <c r="S16" t="n">
-        <v>0.3303</v>
+        <v>0.3289</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3304</v>
+        <v>0.3292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.3303</v>
+        <v>0.3292</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3303</v>
+        <v>0.329</v>
       </c>
       <c r="W16" t="n">
-        <v>0.3303</v>
+        <v>0.3288</v>
       </c>
       <c r="X16" t="n">
-        <v>0.3302</v>
+        <v>0.3288</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3303</v>
+        <v>0.3292</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.3303</v>
+        <v>0.3286</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.3303</v>
+        <v>0.3288</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.3301</v>
+        <v>0.3292</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3303</v>
+        <v>0.3286</v>
       </c>
       <c r="AD16" t="n">
-        <v>0.3302</v>
+        <v>0.3284</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.3303</v>
+        <v>0.3289</v>
       </c>
       <c r="AF16" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.3286</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.3285</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.3287</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.3292</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.3292</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.3293</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.3295</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.3285</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.3293</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.3292</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.3292</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.3291</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.3287</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.3288</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0.3285</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0.3285</v>
+      </c>
+      <c r="AY16" t="n">
         <v>0.3267</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AZ16" t="n">
         <v>0.3517</v>
       </c>
     </row>
@@ -2147,100 +3097,157 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.3582</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.3589</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.3581</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.3582</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.3587</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.3581</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="Z17" t="n">
         <v>0.3578</v>
       </c>
-      <c r="C17" t="n">
+      <c r="AA17" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.3577</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.3583</v>
+      </c>
+      <c r="AO17" t="n">
         <v>0.3578</v>
       </c>
-      <c r="D17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0.3574</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.3575</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0.3576</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0.3162</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0.3462</v>
+      <c r="AP17" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.3585</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.3581</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0.3579</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.3119</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0.3419</v>
       </c>
     </row>
     <row r="18">
@@ -2250,100 +3257,157 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3402</v>
+        <v>0.3423</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3401</v>
+        <v>0.3359</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3401</v>
+        <v>0.3406</v>
       </c>
       <c r="E18" t="n">
-        <v>0.34</v>
+        <v>0.3407</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3401</v>
+        <v>0.3363</v>
       </c>
       <c r="G18" t="n">
-        <v>0.34</v>
+        <v>0.3361</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3401</v>
+        <v>0.3408</v>
       </c>
       <c r="I18" t="n">
-        <v>0.34</v>
+        <v>0.3361</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3401</v>
+        <v>0.336</v>
       </c>
       <c r="K18" t="n">
-        <v>0.34</v>
+        <v>0.3406</v>
       </c>
       <c r="L18" t="n">
-        <v>0.34</v>
+        <v>0.336</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3399</v>
+        <v>0.3405</v>
       </c>
       <c r="N18" t="n">
-        <v>0.34</v>
+        <v>0.3406</v>
       </c>
       <c r="O18" t="n">
-        <v>0.34</v>
+        <v>0.3363</v>
       </c>
       <c r="P18" t="n">
-        <v>0.34</v>
+        <v>0.3406</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.34</v>
+        <v>0.3362</v>
       </c>
       <c r="R18" t="n">
-        <v>0.34</v>
+        <v>0.3408</v>
       </c>
       <c r="S18" t="n">
-        <v>0.34</v>
+        <v>0.3407</v>
       </c>
       <c r="T18" t="n">
-        <v>0.34</v>
+        <v>0.3361</v>
       </c>
       <c r="U18" t="n">
-        <v>0.34</v>
+        <v>0.3359</v>
       </c>
       <c r="V18" t="n">
-        <v>0.34</v>
+        <v>0.3359</v>
       </c>
       <c r="W18" t="n">
-        <v>0.3399</v>
+        <v>0.3405</v>
       </c>
       <c r="X18" t="n">
-        <v>0.34</v>
+        <v>0.3405</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.34</v>
+        <v>0.3359</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.34</v>
+        <v>0.3406</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.34</v>
+        <v>0.3408</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.3399</v>
+        <v>0.3361</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.3399</v>
+        <v>0.3405</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.3399</v>
+        <v>0.3405</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.3399</v>
+        <v>0.3361</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.3199</v>
+        <v>0.336</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.3449</v>
+        <v>0.3406</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.3405</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.3404</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.3359</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.3359</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.3361</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.3362</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.3407</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.3407</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0.3361</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0.3359</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0.3358</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0.3406</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0.3406</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0.3406</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0.3358</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.3183</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0.3433</v>
       </c>
     </row>
     <row r="19">
@@ -2353,100 +3417,157 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3667</v>
+        <v>0.3683</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3667</v>
+        <v>0.3638</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3666</v>
+        <v>0.3674</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3666</v>
+        <v>0.3675</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3666</v>
+        <v>0.3642</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3665</v>
+        <v>0.3641</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3666</v>
+        <v>0.3676</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3665</v>
+        <v>0.3641</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3666</v>
+        <v>0.364</v>
       </c>
       <c r="K19" t="n">
-        <v>0.3665</v>
+        <v>0.3674</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3665</v>
+        <v>0.364</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3665</v>
+        <v>0.3674</v>
       </c>
       <c r="N19" t="n">
-        <v>0.3665</v>
+        <v>0.3675</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3665</v>
+        <v>0.3642</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3665</v>
+        <v>0.3675</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.3665</v>
+        <v>0.3641</v>
       </c>
       <c r="R19" t="n">
-        <v>0.3665</v>
+        <v>0.3676</v>
       </c>
       <c r="S19" t="n">
-        <v>0.3665</v>
+        <v>0.3675</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3665</v>
+        <v>0.3639</v>
       </c>
       <c r="U19" t="n">
-        <v>0.3665</v>
+        <v>0.3638</v>
       </c>
       <c r="V19" t="n">
-        <v>0.3665</v>
+        <v>0.3638</v>
       </c>
       <c r="W19" t="n">
-        <v>0.3665</v>
+        <v>0.3674</v>
       </c>
       <c r="X19" t="n">
-        <v>0.3666</v>
+        <v>0.3674</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.3666</v>
+        <v>0.3639</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.3665</v>
+        <v>0.3674</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.3664</v>
+        <v>0.3676</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.3664</v>
+        <v>0.364</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.3664</v>
+        <v>0.3674</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.3664</v>
+        <v>0.3673</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.3664</v>
+        <v>0.364</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.3243</v>
+        <v>0.3639</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.3543</v>
+        <v>0.3674</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.3674</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.3673</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.3638</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.3639</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.3641</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.3676</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.3675</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.3639</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.3639</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.3638</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.3674</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.3675</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0.3675</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0.3637</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0.3545</v>
       </c>
     </row>
     <row r="20">
@@ -2456,100 +3577,157 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3332</v>
+        <v>0.3286</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3334</v>
+        <v>0.331</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3333</v>
+        <v>0.3299</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3333</v>
+        <v>0.3314</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3333</v>
+        <v>0.3296</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3333</v>
+        <v>0.3311</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3334</v>
+        <v>0.3293</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3334</v>
+        <v>0.3309</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3331</v>
+        <v>0.3308</v>
       </c>
       <c r="K20" t="n">
-        <v>0.333</v>
+        <v>0.3295</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3331</v>
+        <v>0.3307</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3329</v>
+        <v>0.3297</v>
       </c>
       <c r="N20" t="n">
-        <v>0.3328</v>
+        <v>0.3296</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3328</v>
+        <v>0.3305</v>
       </c>
       <c r="P20" t="n">
-        <v>0.3331</v>
+        <v>0.3296</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.3333</v>
+        <v>0.3308</v>
       </c>
       <c r="R20" t="n">
-        <v>0.3331</v>
+        <v>0.3294</v>
       </c>
       <c r="S20" t="n">
-        <v>0.3333</v>
+        <v>0.3291</v>
       </c>
       <c r="T20" t="n">
-        <v>0.3333</v>
+        <v>0.3303</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3333</v>
+        <v>0.3304</v>
       </c>
       <c r="V20" t="n">
-        <v>0.3333</v>
+        <v>0.3288</v>
       </c>
       <c r="W20" t="n">
-        <v>0.3331</v>
+        <v>0.3302</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3331</v>
+        <v>0.3292</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.3333</v>
+        <v>0.3303</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.3333</v>
+        <v>0.3283</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.3334</v>
+        <v>0.3293</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.3334</v>
+        <v>0.3288</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.3331</v>
+        <v>0.3301</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.3332</v>
+        <v>0.3288</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.3334</v>
+        <v>0.3305</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.318</v>
+        <v>0.3287</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.343</v>
+        <v>0.3302</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.3289</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.3303</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.3304</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.3301</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.3303</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.3278</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.3288</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.3301</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.3303</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.3273</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.3302</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0.3283</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.3139</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0.3389</v>
       </c>
     </row>
     <row r="21">
@@ -2559,100 +3737,157 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3553</v>
+        <v>0.354</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3554</v>
+        <v>0.3541</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3554</v>
+        <v>0.3545</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3554</v>
+        <v>0.3546</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3554</v>
+        <v>0.3543</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3554</v>
+        <v>0.3545</v>
       </c>
       <c r="H21" t="n">
-        <v>0.3554</v>
+        <v>0.3539</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3554</v>
+        <v>0.3541</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3552</v>
+        <v>0.3541</v>
       </c>
       <c r="K21" t="n">
-        <v>0.3552</v>
+        <v>0.3544</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3552</v>
+        <v>0.354</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3552</v>
+        <v>0.3542</v>
       </c>
       <c r="N21" t="n">
-        <v>0.3551</v>
+        <v>0.3543</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3551</v>
+        <v>0.3538</v>
       </c>
       <c r="P21" t="n">
-        <v>0.3552</v>
+        <v>0.3542</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3554</v>
+        <v>0.3542</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3553</v>
+        <v>0.354</v>
       </c>
       <c r="S21" t="n">
-        <v>0.3553</v>
+        <v>0.3539</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3554</v>
+        <v>0.3538</v>
       </c>
       <c r="U21" t="n">
-        <v>0.3553</v>
+        <v>0.3538</v>
       </c>
       <c r="V21" t="n">
-        <v>0.3554</v>
+        <v>0.3535</v>
       </c>
       <c r="W21" t="n">
-        <v>0.3552</v>
+        <v>0.3539</v>
       </c>
       <c r="X21" t="n">
-        <v>0.3553</v>
+        <v>0.354</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.3554</v>
+        <v>0.3539</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.3554</v>
+        <v>0.353</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.3554</v>
+        <v>0.3541</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.3554</v>
+        <v>0.3537</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.3553</v>
+        <v>0.3538</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.3553</v>
+        <v>0.3538</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.3554</v>
+        <v>0.3542</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.3178</v>
+        <v>0.3537</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.3478</v>
+        <v>0.354</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.3541</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.3541</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.3541</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.3526</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.3541</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.3539</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.3541</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0.3537</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0.3542</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.3161</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0.3461</v>
       </c>
     </row>
     <row r="22">
@@ -2662,99 +3897,156 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.333</v>
+        <v>0.3327</v>
       </c>
       <c r="C22" t="n">
-        <v>0.333</v>
+        <v>0.3313</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3328</v>
+        <v>0.3315</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3324</v>
+        <v>0.3311</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3325</v>
+        <v>0.3315</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3324</v>
+        <v>0.3312</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3324</v>
+        <v>0.331</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3324</v>
+        <v>0.3312</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3324</v>
+        <v>0.3311</v>
       </c>
       <c r="K22" t="n">
-        <v>0.3326</v>
+        <v>0.3315</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3324</v>
+        <v>0.3313</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3325</v>
+        <v>0.3311</v>
       </c>
       <c r="N22" t="n">
-        <v>0.3328</v>
+        <v>0.3319</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3328</v>
+        <v>0.3316</v>
       </c>
       <c r="P22" t="n">
-        <v>0.3326</v>
+        <v>0.3312</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.3325</v>
+        <v>0.3313</v>
       </c>
       <c r="R22" t="n">
-        <v>0.3324</v>
+        <v>0.3316</v>
       </c>
       <c r="S22" t="n">
-        <v>0.3324</v>
+        <v>0.3312</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3324</v>
+        <v>0.331</v>
       </c>
       <c r="U22" t="n">
-        <v>0.3324</v>
+        <v>0.3309</v>
       </c>
       <c r="V22" t="n">
-        <v>0.3325</v>
+        <v>0.3309</v>
       </c>
       <c r="W22" t="n">
-        <v>0.3325</v>
+        <v>0.3308</v>
       </c>
       <c r="X22" t="n">
-        <v>0.3322</v>
+        <v>0.3316</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.3329</v>
+        <v>0.331</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.3329</v>
+        <v>0.3308</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.3328</v>
+        <v>0.3315</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.3327</v>
+        <v>0.3312</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.3325</v>
+        <v>0.3304</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.3328</v>
+        <v>0.3307</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.3325</v>
+        <v>0.3302</v>
       </c>
       <c r="AF22" t="n">
+        <v>0.3309</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.3308</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.3304</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.3316</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.3303</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.3315</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.3308</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.3309</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.3307</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.3308</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.3311</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.3306</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0.3309</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0.3312</v>
+      </c>
+      <c r="AY22" t="n">
         <v>0.3267</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AZ22" t="n">
         <v>0.3517</v>
       </c>
     </row>
@@ -2765,25 +4057,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3592</v>
+        <v>0.3598</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3591</v>
+        <v>0.3587</v>
       </c>
       <c r="D23" t="n">
-        <v>0.359</v>
+        <v>0.3593</v>
       </c>
       <c r="E23" t="n">
         <v>0.3587</v>
       </c>
       <c r="F23" t="n">
+        <v>0.3594</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.3588</v>
       </c>
-      <c r="G23" t="n">
-        <v>0.3587</v>
-      </c>
       <c r="H23" t="n">
-        <v>0.3587</v>
+        <v>0.3589</v>
       </c>
       <c r="I23" t="n">
         <v>0.3587</v>
@@ -2792,73 +4084,130 @@
         <v>0.3587</v>
       </c>
       <c r="K23" t="n">
-        <v>0.3589</v>
+        <v>0.3593</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3587</v>
+        <v>0.3588</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3589</v>
+        <v>0.3588</v>
       </c>
       <c r="N23" t="n">
-        <v>0.359</v>
+        <v>0.3596</v>
       </c>
       <c r="O23" t="n">
         <v>0.3591</v>
       </c>
       <c r="P23" t="n">
-        <v>0.3589</v>
+        <v>0.359</v>
       </c>
       <c r="Q23" t="n">
         <v>0.3587</v>
       </c>
       <c r="R23" t="n">
-        <v>0.3587</v>
+        <v>0.3593</v>
       </c>
       <c r="S23" t="n">
-        <v>0.3587</v>
+        <v>0.359</v>
       </c>
       <c r="T23" t="n">
         <v>0.3587</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3587</v>
+        <v>0.3586</v>
       </c>
       <c r="V23" t="n">
         <v>0.3588</v>
       </c>
       <c r="W23" t="n">
-        <v>0.3588</v>
+        <v>0.3587</v>
       </c>
       <c r="X23" t="n">
+        <v>0.3593</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="Z23" t="n">
         <v>0.3587</v>
       </c>
-      <c r="Y23" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>0.3592</v>
       </c>
-      <c r="AA23" t="n">
-        <v>0.359</v>
-      </c>
       <c r="AB23" t="n">
-        <v>0.3589</v>
+        <v>0.3592</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.3587</v>
+        <v>0.3583</v>
       </c>
       <c r="AD23" t="n">
         <v>0.3589</v>
       </c>
       <c r="AE23" t="n">
+        <v>0.3581</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.3589</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>0.3587</v>
       </c>
-      <c r="AF23" t="n">
-        <v>0.3162</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0.3462</v>
+      <c r="AK23" t="n">
+        <v>0.3592</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.3584</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.3594</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.3587</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.3588</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0.3587</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.3592</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0.3586</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0.3589</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0.3593</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0.3119</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0.3419</v>
       </c>
     </row>
     <row r="24">
@@ -2868,100 +4217,157 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0.3473</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3495</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3446</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.3496</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3447</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.3445</v>
       </c>
-      <c r="C24" t="n">
-        <v>0.3445</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.3444</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.3444</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.3444</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.3443</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.3443</v>
-      </c>
       <c r="I24" t="n">
-        <v>0.3444</v>
+        <v>0.3495</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3443</v>
+        <v>0.3497</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3443</v>
+        <v>0.3446</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3443</v>
+        <v>0.3495</v>
       </c>
       <c r="M24" t="n">
         <v>0.3443</v>
       </c>
       <c r="N24" t="n">
+        <v>0.3446</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.3495</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.3444</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.3499</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.3446</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.3444</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.3496</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="V24" t="n">
         <v>0.3443</v>
       </c>
-      <c r="O24" t="n">
+      <c r="W24" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.3444</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.3495</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.3444</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.3445</v>
+      </c>
+      <c r="AB24" t="n">
         <v>0.3443</v>
       </c>
-      <c r="P24" t="n">
+      <c r="AC24" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.3444</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.3492</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.3441</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.3445</v>
+      </c>
+      <c r="AI24" t="n">
         <v>0.3443</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="AJ24" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.3497</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.3442</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.3444</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.3491</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.3494</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.3492</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.3441</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0.3493</v>
+      </c>
+      <c r="AW24" t="n">
         <v>0.3443</v>
       </c>
-      <c r="R24" t="n">
+      <c r="AX24" t="n">
         <v>0.3443</v>
       </c>
-      <c r="S24" t="n">
-        <v>0.3443</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0.3443</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0.3443</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0.3442</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.3442</v>
-      </c>
-      <c r="X24" t="n">
-        <v>0.3442</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.3442</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>0.3442</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0.3443</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0.3442</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0.3442</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.3442</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0.3442</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0.3199</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0.3449</v>
+      <c r="AY24" t="n">
+        <v>0.3183</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0.3433</v>
       </c>
     </row>
     <row r="25">
@@ -2971,100 +4377,157 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0.3707</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3727</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.3691</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3728</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.3692</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3729</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3728</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.3729</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3691</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3727</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3689</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3691</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3728</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.3691</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.3689</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.3727</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.3726</v>
+      </c>
+      <c r="V25" t="n">
         <v>0.3687</v>
       </c>
-      <c r="C25" t="n">
+      <c r="W25" t="n">
+        <v>0.3726</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3689</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3727</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3689</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.3688</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3726</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3689</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3725</v>
+      </c>
+      <c r="AF25" t="n">
         <v>0.3686</v>
       </c>
-      <c r="D25" t="n">
-        <v>0.3686</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.3686</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.3686</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="AG25" t="n">
+        <v>0.3725</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.3689</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3687</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.3726</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.3726</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3727</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3728</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3687</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.3689</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.3726</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3724</v>
+      </c>
+      <c r="AR25" t="n">
         <v>0.3685</v>
       </c>
-      <c r="H25" t="n">
-        <v>0.3685</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.3685</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.3685</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.3685</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.3685</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.3685</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.3685</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.3685</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.3685</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.3685</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.3684</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0.3683</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0.3243</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0.3543</v>
+      <c r="AS25" t="n">
+        <v>0.3726</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3725</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3687</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0.3726</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0.3689</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0.3688</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0.3245</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0.3545</v>
       </c>
     </row>
   </sheetData>
